--- a/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9992407352824531</v>
+      </c>
+      <c r="D3">
         <v>0.9992473852668919</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.001671200556589</v>
+      </c>
+      <c r="F3">
+        <v>0.9979662117509901</v>
+      </c>
+      <c r="G3">
         <v>1.003034599795769</v>
       </c>
-      <c r="E3">
+      <c r="H3">
+        <v>0.9992473852668919</v>
+      </c>
+      <c r="I3">
         <v>0.9992379969309925</v>
-      </c>
-      <c r="F3">
-        <v>0.9992473852668919</v>
-      </c>
-      <c r="G3">
-        <v>0.9979662117509901</v>
-      </c>
-      <c r="H3">
-        <v>1.001671200556589</v>
-      </c>
-      <c r="I3">
-        <v>0.9992407352824531</v>
       </c>
       <c r="J3">
         <v>1.003034599795769</v>
@@ -728,7 +680,7 @@
         <v>1.000066354930614</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9985342458183785</v>
+      </c>
+      <c r="D4">
         <v>0.9985470252546133</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.003226235618438</v>
+      </c>
+      <c r="F4">
+        <v>0.9960738577929245</v>
+      </c>
+      <c r="G4">
         <v>1.005858292635163</v>
       </c>
-      <c r="E4">
+      <c r="H4">
+        <v>0.9985470252546133</v>
+      </c>
+      <c r="I4">
         <v>0.9985289828231712</v>
-      </c>
-      <c r="F4">
-        <v>0.9985470252546133</v>
-      </c>
-      <c r="G4">
-        <v>0.9960738577929247</v>
-      </c>
-      <c r="H4">
-        <v>1.003226235618438</v>
-      </c>
-      <c r="I4">
-        <v>0.9985342458183785</v>
       </c>
       <c r="J4">
         <v>1.005858292635163</v>
@@ -790,7 +742,7 @@
         <v>1.000128106657115</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9972143867610729</v>
+        <v>0.9971909874993824</v>
       </c>
       <c r="D5">
+        <v>0.9972143867610728</v>
+      </c>
+      <c r="E5">
+        <v>1.006182727408908</v>
+      </c>
+      <c r="F5">
+        <v>0.9924773085102437</v>
+      </c>
+      <c r="G5">
         <v>1.011227408084276</v>
       </c>
-      <c r="E5">
+      <c r="H5">
+        <v>0.9972143867610728</v>
+      </c>
+      <c r="I5">
         <v>0.9971813486215854</v>
-      </c>
-      <c r="F5">
-        <v>0.9972143867610729</v>
-      </c>
-      <c r="G5">
-        <v>0.9924773085102437</v>
-      </c>
-      <c r="H5">
-        <v>1.006182727408908</v>
-      </c>
-      <c r="I5">
-        <v>0.9971909874993824</v>
       </c>
       <c r="J5">
         <v>1.011227408084276</v>
       </c>
       <c r="K5">
-        <v>0.9972143867610729</v>
+        <v>0.9972143867610728</v>
       </c>
       <c r="L5">
         <v>0.9971813486215854</v>
@@ -852,7 +804,7 @@
         <v>1.000245694480911</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9958800180012339</v>
+      </c>
+      <c r="D6">
         <v>0.9959137632541213</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.009068104617452</v>
+      </c>
+      <c r="F6">
+        <v>0.9889672965555452</v>
+      </c>
+      <c r="G6">
         <v>1.016467412192414</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>0.9959137632541213</v>
+      </c>
+      <c r="I6">
         <v>0.9958661364656642</v>
-      </c>
-      <c r="F6">
-        <v>0.9959137632541213</v>
-      </c>
-      <c r="G6">
-        <v>0.9889672965555452</v>
-      </c>
-      <c r="H6">
-        <v>1.009068104617452</v>
-      </c>
-      <c r="I6">
-        <v>0.9958800180012339</v>
       </c>
       <c r="J6">
         <v>1.016467412192414</v>
@@ -914,7 +866,7 @@
         <v>1.000360455181072</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,25 +874,25 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999501768484103</v>
+      </c>
+      <c r="D7">
         <v>0.9999497453555698</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>1.000109557627781</v>
+      </c>
+      <c r="F7">
+        <v>0.9998677319092391</v>
+      </c>
+      <c r="G7">
         <v>1.000199455189465</v>
       </c>
-      <c r="E7">
+      <c r="H7">
+        <v>0.9999497453555698</v>
+      </c>
+      <c r="I7">
         <v>0.9999503525527518</v>
-      </c>
-      <c r="F7">
-        <v>0.9999497453555698</v>
-      </c>
-      <c r="G7">
-        <v>0.9998677319092391</v>
-      </c>
-      <c r="H7">
-        <v>1.000109557627781</v>
-      </c>
-      <c r="I7">
-        <v>0.9999501768484103</v>
       </c>
       <c r="J7">
         <v>1.000199455189465</v>
@@ -976,7 +928,7 @@
         <v>1.000004503247203</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,25 +936,25 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9998840253242379</v>
+      </c>
+      <c r="D8">
         <v>0.9998832094753982</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>1.000255043722395</v>
+      </c>
+      <c r="F8">
+        <v>0.9996918527672719</v>
+      </c>
+      <c r="G8">
         <v>1.000464203840418</v>
       </c>
-      <c r="E8">
+      <c r="H8">
+        <v>0.9998832094753982</v>
+      </c>
+      <c r="I8">
         <v>0.9998843591571224</v>
-      </c>
-      <c r="F8">
-        <v>0.9998832094753982</v>
-      </c>
-      <c r="G8">
-        <v>0.999691852767272</v>
-      </c>
-      <c r="H8">
-        <v>1.000255043722395</v>
-      </c>
-      <c r="I8">
-        <v>0.9998840253242378</v>
       </c>
       <c r="J8">
         <v>1.000464203840418</v>
@@ -1038,7 +990,7 @@
         <v>1.000010449047807</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,31 +998,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998450548989791</v>
+        <v>0.9998455637341807</v>
       </c>
       <c r="D9">
+        <v>0.9998450548989788</v>
+      </c>
+      <c r="E9">
+        <v>1.000339696980612</v>
+      </c>
+      <c r="F9">
+        <v>0.9995888696191018</v>
+      </c>
+      <c r="G9">
         <v>1.000617936115851</v>
       </c>
-      <c r="E9">
+      <c r="H9">
+        <v>0.9998450548989788</v>
+      </c>
+      <c r="I9">
         <v>0.9998457715697439</v>
-      </c>
-      <c r="F9">
-        <v>0.9998450548989791</v>
-      </c>
-      <c r="G9">
-        <v>0.9995888696191022</v>
-      </c>
-      <c r="H9">
-        <v>1.000339696980612</v>
-      </c>
-      <c r="I9">
-        <v>0.9998455637341807</v>
       </c>
       <c r="J9">
         <v>1.000617936115851</v>
       </c>
       <c r="K9">
-        <v>0.9998450548989791</v>
+        <v>0.9998450548989788</v>
       </c>
       <c r="L9">
         <v>0.9998457715697439</v>
@@ -1085,10 +1037,10 @@
         <v>1.000267801555402</v>
       </c>
       <c r="P9">
-        <v>1.000102920861525</v>
+        <v>1.000102920861524</v>
       </c>
       <c r="Q9">
-        <v>1.000102920861525</v>
+        <v>1.000102920861524</v>
       </c>
       <c r="R9">
         <v>1.000038454370888</v>
@@ -1100,7 +1052,7 @@
         <v>1.000013815486411</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9996592074147341</v>
+      </c>
+      <c r="D10">
         <v>0.9996573063996075</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.000749509944354</v>
+      </c>
+      <c r="F10">
+        <v>0.9990938271259884</v>
+      </c>
+      <c r="G10">
         <v>1.001363873660887</v>
       </c>
-      <c r="E10">
+      <c r="H10">
+        <v>0.9996573063996075</v>
+      </c>
+      <c r="I10">
         <v>0.9996599897120948</v>
-      </c>
-      <c r="F10">
-        <v>0.9996573063996075</v>
-      </c>
-      <c r="G10">
-        <v>0.9990938271259884</v>
-      </c>
-      <c r="H10">
-        <v>1.000749509944354</v>
-      </c>
-      <c r="I10">
-        <v>0.9996592074147341</v>
       </c>
       <c r="J10">
         <v>1.001363873660887</v>
@@ -1162,7 +1114,7 @@
         <v>1.000030619042944</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9994575783789246</v>
+      </c>
+      <c r="D11">
         <v>0.999456314246812</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.001193169174413</v>
+      </c>
+      <c r="F11">
+        <v>0.9985552801823568</v>
+      </c>
+      <c r="G11">
         <v>1.002170150584252</v>
       </c>
-      <c r="E11">
+      <c r="H11">
+        <v>0.999456314246812</v>
+      </c>
+      <c r="I11">
         <v>0.9994581013797135</v>
-      </c>
-      <c r="F11">
-        <v>0.999456314246812</v>
-      </c>
-      <c r="G11">
-        <v>0.9985552801823568</v>
-      </c>
-      <c r="H11">
-        <v>1.001193169174413</v>
-      </c>
-      <c r="I11">
-        <v>0.9994575783789246</v>
       </c>
       <c r="J11">
         <v>1.002170150584252</v>
@@ -1224,7 +1176,7 @@
         <v>1.000048432324412</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.003678859927265</v>
+      </c>
+      <c r="D12">
         <v>1.004083142202896</v>
       </c>
-      <c r="D12">
-        <v>0.9851348086546715</v>
-      </c>
       <c r="E12">
+        <v>0.9919562085308015</v>
+      </c>
+      <c r="F12">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G12">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="H12">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="I12">
         <v>1.003512512846241</v>
       </c>
-      <c r="F12">
-        <v>1.004083142202896</v>
-      </c>
-      <c r="G12">
-        <v>1.009257961053271</v>
-      </c>
-      <c r="H12">
-        <v>0.9919562085308015</v>
-      </c>
-      <c r="I12">
-        <v>1.003678859927265</v>
-      </c>
       <c r="J12">
-        <v>0.9851348086546715</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="K12">
         <v>1.004083142202896</v>
@@ -1262,31 +1214,31 @@
         <v>1.003512512846241</v>
       </c>
       <c r="M12">
-        <v>0.9943236607504564</v>
+        <v>0.9943236607504563</v>
       </c>
       <c r="N12">
-        <v>0.9943236607504564</v>
+        <v>0.9943236607504563</v>
       </c>
       <c r="O12">
-        <v>0.9935345100105715</v>
+        <v>0.9935345100105714</v>
       </c>
       <c r="P12">
-        <v>0.997576821234603</v>
+        <v>0.9975768212346029</v>
       </c>
       <c r="Q12">
-        <v>0.9975768212346031</v>
+        <v>0.9975768212346029</v>
       </c>
       <c r="R12">
-        <v>0.9992034014766764</v>
+        <v>0.9992034014766762</v>
       </c>
       <c r="S12">
-        <v>0.9992034014766764</v>
+        <v>0.9992034014766762</v>
       </c>
       <c r="T12">
-        <v>0.9996039155358578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9996039155358577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.000924269029135</v>
+      </c>
+      <c r="D13">
         <v>1.000754173015497</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.9979456943120095</v>
+      </c>
+      <c r="F13">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G13">
         <v>0.9963659284845212</v>
       </c>
-      <c r="E13">
-        <v>1.000994259708301</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.000754173015497</v>
       </c>
-      <c r="G13">
-        <v>1.002697115514953</v>
-      </c>
-      <c r="H13">
-        <v>0.9979456943120092</v>
-      </c>
       <c r="I13">
-        <v>1.000924269029135</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="J13">
         <v>0.9963659284845212</v>
@@ -1321,13 +1273,13 @@
         <v>1.000754173015497</v>
       </c>
       <c r="L13">
-        <v>1.000994259708301</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="M13">
-        <v>0.9986800940964109</v>
+        <v>0.9986800940964107</v>
       </c>
       <c r="N13">
-        <v>0.9986800940964109</v>
+        <v>0.9986800940964107</v>
       </c>
       <c r="O13">
         <v>0.998435294168277</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999469066774026</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.008594582493255</v>
+      </c>
+      <c r="D14">
         <v>1.008440267632869</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>0.9810729601344501</v>
+      </c>
+      <c r="F14">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G14">
         <v>0.9656788526781157</v>
       </c>
-      <c r="E14">
+      <c r="H14">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="I14">
         <v>1.008658063000247</v>
-      </c>
-      <c r="F14">
-        <v>1.008440267632869</v>
-      </c>
-      <c r="G14">
-        <v>1.023129671862989</v>
-      </c>
-      <c r="H14">
-        <v>0.9810729601344501</v>
-      </c>
-      <c r="I14">
-        <v>1.008594582493255</v>
       </c>
       <c r="J14">
         <v>0.9656788526781157</v>
@@ -1410,7 +1362,7 @@
         <v>0.9992623996336542</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.002232186217677</v>
+      </c>
+      <c r="D15">
         <v>1.002295542145029</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.9950969875170368</v>
+      </c>
+      <c r="F15">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G15">
         <v>0.991047796534645</v>
       </c>
-      <c r="E15">
+      <c r="H15">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="I15">
         <v>1.002206115577125</v>
-      </c>
-      <c r="F15">
-        <v>1.002295542145029</v>
-      </c>
-      <c r="G15">
-        <v>1.005865936989239</v>
-      </c>
-      <c r="H15">
-        <v>0.9950969875170368</v>
-      </c>
-      <c r="I15">
-        <v>1.002232186217677</v>
       </c>
       <c r="J15">
         <v>0.991047796534645</v>
@@ -1460,7 +1412,7 @@
         <v>0.9985164847522663</v>
       </c>
       <c r="Q15">
-        <v>0.9985164847522664</v>
+        <v>0.9985164847522663</v>
       </c>
       <c r="R15">
         <v>0.9994612491004571</v>
@@ -1469,10 +1421,10 @@
         <v>0.9994612491004571</v>
       </c>
       <c r="T15">
-        <v>0.9997907608301254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9997907608301252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999962252482356</v>
+        <v>0.985192101790878</v>
       </c>
       <c r="D16">
-        <v>1.000012944401246</v>
+        <v>0.9853060375276772</v>
       </c>
       <c r="E16">
-        <v>0.9999970623233685</v>
+        <v>1.032591400657903</v>
       </c>
       <c r="F16">
-        <v>0.9999962252482356</v>
+        <v>0.9603565911374085</v>
       </c>
       <c r="G16">
-        <v>0.9999923350395155</v>
+        <v>1.059189421155252</v>
       </c>
       <c r="H16">
-        <v>1.000006923348987</v>
+        <v>0.9853060375276772</v>
       </c>
       <c r="I16">
-        <v>0.9999968195797659</v>
+        <v>0.9851452108154958</v>
       </c>
       <c r="J16">
-        <v>1.000012944401246</v>
+        <v>1.059189421155252</v>
       </c>
       <c r="K16">
-        <v>0.9999962252482356</v>
+        <v>0.9853060375276772</v>
       </c>
       <c r="L16">
-        <v>0.9999970623233685</v>
+        <v>0.9851452108154958</v>
       </c>
       <c r="M16">
-        <v>1.000005003362307</v>
+        <v>1.022167315985374</v>
       </c>
       <c r="N16">
-        <v>1.000005003362307</v>
+        <v>1.022167315985374</v>
       </c>
       <c r="O16">
-        <v>1.000005643357867</v>
+        <v>1.025642010876217</v>
       </c>
       <c r="P16">
-        <v>1.000002077324283</v>
+        <v>1.009880223166142</v>
       </c>
       <c r="Q16">
-        <v>1.000002077324283</v>
+        <v>1.009880223166142</v>
       </c>
       <c r="R16">
-        <v>1.000000614305271</v>
+        <v>1.003736676756526</v>
       </c>
       <c r="S16">
-        <v>1.000000614305271</v>
+        <v>1.003736676756526</v>
       </c>
       <c r="T16">
-        <v>1.000000384990186</v>
+        <v>1.001296793847436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999334129682838</v>
+        <v>0.9878890587447938</v>
       </c>
       <c r="D17">
-        <v>1.000265857269597</v>
+        <v>0.9879474620601781</v>
       </c>
       <c r="E17">
-        <v>0.9999336028302104</v>
+        <v>1.026651262906211</v>
       </c>
       <c r="F17">
-        <v>0.9999334129682838</v>
+        <v>0.9676243532307456</v>
       </c>
       <c r="G17">
-        <v>0.9998229867668249</v>
+        <v>1.04842215344725</v>
       </c>
       <c r="H17">
-        <v>1.000146175627824</v>
+        <v>0.9879474620601781</v>
       </c>
       <c r="I17">
-        <v>0.9999335485630789</v>
+        <v>0.9878650213057757</v>
       </c>
       <c r="J17">
-        <v>1.000265857269597</v>
+        <v>1.04842215344725</v>
       </c>
       <c r="K17">
-        <v>0.9999334129682838</v>
+        <v>0.9879474620601781</v>
       </c>
       <c r="L17">
-        <v>0.9999336028302104</v>
+        <v>0.9878650213057757</v>
       </c>
       <c r="M17">
-        <v>1.000099730049904</v>
+        <v>1.018143587376513</v>
       </c>
       <c r="N17">
-        <v>1.000099730049904</v>
+        <v>1.018143587376513</v>
       </c>
       <c r="O17">
-        <v>1.000115211909211</v>
+        <v>1.020979479219745</v>
       </c>
       <c r="P17">
-        <v>1.000044291022697</v>
+        <v>1.008078212271068</v>
       </c>
       <c r="Q17">
-        <v>1.000044291022697</v>
+        <v>1.008078212271068</v>
       </c>
       <c r="R17">
-        <v>1.000016571509094</v>
+        <v>1.003045524718345</v>
       </c>
       <c r="S17">
-        <v>1.000016571509094</v>
+        <v>1.003045524718345</v>
       </c>
       <c r="T17">
-        <v>1.00000593067097</v>
+        <v>1.001066551949159</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997675346296434</v>
+        <v>0.9933289644370907</v>
       </c>
       <c r="D18">
-        <v>1.000934783784859</v>
+        <v>0.9932778783529508</v>
       </c>
       <c r="E18">
-        <v>0.9997656198022739</v>
+        <v>1.014669995439299</v>
       </c>
       <c r="F18">
-        <v>0.9997675346296434</v>
+        <v>0.9822803805514722</v>
       </c>
       <c r="G18">
-        <v>0.9993746270831888</v>
+        <v>1.026703057326189</v>
       </c>
       <c r="H18">
-        <v>1.000514573987834</v>
+        <v>0.9932778783529508</v>
       </c>
       <c r="I18">
-        <v>0.9997661777571404</v>
+        <v>0.9933499912262485</v>
       </c>
       <c r="J18">
-        <v>1.000934783784859</v>
+        <v>1.026703057326189</v>
       </c>
       <c r="K18">
-        <v>0.9997675346296434</v>
+        <v>0.9932778783529508</v>
       </c>
       <c r="L18">
-        <v>0.9997656198022739</v>
+        <v>0.9933499912262485</v>
       </c>
       <c r="M18">
-        <v>1.000350201793567</v>
+        <v>1.010026524276219</v>
       </c>
       <c r="N18">
-        <v>1.000350201793567</v>
+        <v>1.010026524276219</v>
       </c>
       <c r="O18">
-        <v>1.000404992524989</v>
+        <v>1.011574347997246</v>
       </c>
       <c r="P18">
-        <v>1.000155979405592</v>
+        <v>1.004443642301796</v>
       </c>
       <c r="Q18">
-        <v>1.000155979405592</v>
+        <v>1.004443642301796</v>
       </c>
       <c r="R18">
-        <v>1.000058868211605</v>
+        <v>1.001652201314585</v>
       </c>
       <c r="S18">
-        <v>1.000058868211605</v>
+        <v>1.001652201314585</v>
       </c>
       <c r="T18">
-        <v>1.000020552840823</v>
+        <v>1.000601711222209</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9927255576354076</v>
+      </c>
+      <c r="D19">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="E19">
+        <v>1.015994395620708</v>
+      </c>
+      <c r="F19">
+        <v>0.9807057142226133</v>
+      </c>
+      <c r="G19">
+        <v>1.029126023041376</v>
+      </c>
+      <c r="H19">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="I19">
+        <v>0.9927569498690941</v>
+      </c>
+      <c r="J19">
+        <v>1.029126023041376</v>
+      </c>
+      <c r="K19">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="L19">
+        <v>0.9927569498690941</v>
+      </c>
+      <c r="M19">
+        <v>1.010941486455235</v>
+      </c>
+      <c r="N19">
+        <v>1.010941486455235</v>
+      </c>
+      <c r="O19">
+        <v>1.012625789510393</v>
+      </c>
+      <c r="P19">
+        <v>1.004844082696625</v>
+      </c>
+      <c r="Q19">
+        <v>1.004844082696625</v>
+      </c>
+      <c r="R19">
+        <v>1.00179538081732</v>
+      </c>
+      <c r="S19">
+        <v>1.00179538081732</v>
+      </c>
+      <c r="T19">
+        <v>1.000659652594767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999968195797659</v>
+      </c>
+      <c r="D20">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="E20">
+        <v>1.000006923348987</v>
+      </c>
+      <c r="F20">
+        <v>0.9999923350395155</v>
+      </c>
+      <c r="G20">
+        <v>1.000012944401246</v>
+      </c>
+      <c r="H20">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="I20">
+        <v>0.9999970623233685</v>
+      </c>
+      <c r="J20">
+        <v>1.000012944401246</v>
+      </c>
+      <c r="K20">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="L20">
+        <v>0.9999970623233685</v>
+      </c>
+      <c r="M20">
+        <v>1.000005003362307</v>
+      </c>
+      <c r="N20">
+        <v>1.000005003362307</v>
+      </c>
+      <c r="O20">
+        <v>1.000005643357867</v>
+      </c>
+      <c r="P20">
+        <v>1.000002077324283</v>
+      </c>
+      <c r="Q20">
+        <v>1.000002077324283</v>
+      </c>
+      <c r="R20">
+        <v>1.000000614305271</v>
+      </c>
+      <c r="S20">
+        <v>1.000000614305271</v>
+      </c>
+      <c r="T20">
+        <v>1.000000384990186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999335485630793</v>
+      </c>
+      <c r="D21">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="E21">
+        <v>1.000146175627824</v>
+      </c>
+      <c r="F21">
+        <v>0.9998229867668249</v>
+      </c>
+      <c r="G21">
+        <v>1.000265857269597</v>
+      </c>
+      <c r="H21">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="I21">
+        <v>0.9999336028302104</v>
+      </c>
+      <c r="J21">
+        <v>1.000265857269597</v>
+      </c>
+      <c r="K21">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="L21">
+        <v>0.9999336028302104</v>
+      </c>
+      <c r="M21">
+        <v>1.000099730049904</v>
+      </c>
+      <c r="N21">
+        <v>1.000099730049904</v>
+      </c>
+      <c r="O21">
+        <v>1.000115211909211</v>
+      </c>
+      <c r="P21">
+        <v>1.000044291022697</v>
+      </c>
+      <c r="Q21">
+        <v>1.000044291022697</v>
+      </c>
+      <c r="R21">
+        <v>1.000016571509094</v>
+      </c>
+      <c r="S21">
+        <v>1.000016571509094</v>
+      </c>
+      <c r="T21">
+        <v>1.00000593067097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9997661777571404</v>
+      </c>
+      <c r="D22">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="E22">
+        <v>1.000514573987834</v>
+      </c>
+      <c r="F22">
+        <v>0.9993746270831888</v>
+      </c>
+      <c r="G22">
+        <v>1.000934783784859</v>
+      </c>
+      <c r="H22">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="I22">
+        <v>0.9997656198022739</v>
+      </c>
+      <c r="J22">
+        <v>1.000934783784859</v>
+      </c>
+      <c r="K22">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="L22">
+        <v>0.9997656198022739</v>
+      </c>
+      <c r="M22">
+        <v>1.000350201793567</v>
+      </c>
+      <c r="N22">
+        <v>1.000350201793567</v>
+      </c>
+      <c r="O22">
+        <v>1.000404992524989</v>
+      </c>
+      <c r="P22">
+        <v>1.000155979405592</v>
+      </c>
+      <c r="Q22">
+        <v>1.000155979405592</v>
+      </c>
+      <c r="R22">
+        <v>1.000058868211605</v>
+      </c>
+      <c r="S22">
+        <v>1.000058868211605</v>
+      </c>
+      <c r="T22">
+        <v>1.000020552840823</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9994523697589928</v>
+      </c>
+      <c r="D23">
         <v>0.9994574708944242</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.001205424225527</v>
+      </c>
+      <c r="F23">
+        <v>0.9985326761343395</v>
+      </c>
+      <c r="G23">
         <v>1.002188644912575</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9994574708944242</v>
+      </c>
+      <c r="I23">
         <v>0.9994502649339647</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>1.002188644912575</v>
+      </c>
+      <c r="K23">
         <v>0.9994574708944242</v>
       </c>
-      <c r="G19">
-        <v>0.9985326761343395</v>
-      </c>
-      <c r="H19">
-        <v>1.001205424225527</v>
-      </c>
-      <c r="I19">
-        <v>0.9994523697589928</v>
-      </c>
-      <c r="J19">
-        <v>1.002188644912575</v>
-      </c>
-      <c r="K19">
-        <v>0.9994574708944242</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9994502649339647</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.00081945492327</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.00081945492327</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000948111357356</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000365460246988</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000365460246988</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000138462908847</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000138462908847</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000047808476637</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992407352824531</v>
+        <v>0.9921987482925076</v>
       </c>
       <c r="D3">
-        <v>0.9992473852668919</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="E3">
-        <v>1.001671200556589</v>
+        <v>1.017155022564842</v>
       </c>
       <c r="F3">
-        <v>0.9979662117509901</v>
+        <v>0.9792826062247858</v>
       </c>
       <c r="G3">
-        <v>1.003034599795769</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="H3">
-        <v>0.9992473852668919</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="I3">
-        <v>0.9992379969309925</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="J3">
-        <v>1.003034599795769</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="K3">
-        <v>0.9992473852668919</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="L3">
-        <v>0.9992379969309925</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="M3">
-        <v>1.001136298363381</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="N3">
-        <v>1.001136298363381</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="O3">
-        <v>1.00131459909445</v>
+        <v>1.013535988230067</v>
       </c>
       <c r="P3">
-        <v>1.000506660664551</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="Q3">
-        <v>1.000506660664551</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="R3">
-        <v>1.000191841815136</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="S3">
-        <v>1.000191841815136</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="T3">
-        <v>1.000066354930614</v>
+        <v>1.000704193872479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985342458183785</v>
+        <v>0.9927980643701153</v>
       </c>
       <c r="D4">
-        <v>0.9985470252546133</v>
+        <v>0.9927400322623944</v>
       </c>
       <c r="E4">
-        <v>1.003226235618438</v>
+        <v>1.015837125732384</v>
       </c>
       <c r="F4">
-        <v>0.9960738577929245</v>
+        <v>0.9808741260063405</v>
       </c>
       <c r="G4">
-        <v>1.005858292635163</v>
+        <v>1.028829240259038</v>
       </c>
       <c r="H4">
-        <v>0.9985470252546133</v>
+        <v>0.9927400322623944</v>
       </c>
       <c r="I4">
-        <v>0.9985289828231712</v>
+        <v>0.9928219441464763</v>
       </c>
       <c r="J4">
-        <v>1.005858292635163</v>
+        <v>1.028829240259038</v>
       </c>
       <c r="K4">
-        <v>0.9985470252546133</v>
+        <v>0.9927400322623944</v>
       </c>
       <c r="L4">
-        <v>0.9985289828231712</v>
+        <v>0.9928219441464763</v>
       </c>
       <c r="M4">
-        <v>1.002193637729167</v>
+        <v>1.010825592202757</v>
       </c>
       <c r="N4">
-        <v>1.002193637729167</v>
+        <v>1.010825592202757</v>
       </c>
       <c r="O4">
-        <v>1.002537837025591</v>
+        <v>1.0124961033793</v>
       </c>
       <c r="P4">
-        <v>1.000978100237649</v>
+        <v>1.004797072222636</v>
       </c>
       <c r="Q4">
-        <v>1.000978100237649</v>
+        <v>1.004797072222636</v>
       </c>
       <c r="R4">
-        <v>1.00037033149189</v>
+        <v>1.001782812232576</v>
       </c>
       <c r="S4">
-        <v>1.00037033149189</v>
+        <v>1.001782812232576</v>
       </c>
       <c r="T4">
-        <v>1.000128106657115</v>
+        <v>1.000650088796125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9971909874993824</v>
+        <v>0.9910659706199458</v>
       </c>
       <c r="D5">
-        <v>0.9972143867610728</v>
+        <v>0.9909940070889486</v>
       </c>
       <c r="E5">
-        <v>1.006182727408908</v>
+        <v>1.019646027277628</v>
       </c>
       <c r="F5">
-        <v>0.9924773085102437</v>
+        <v>0.9762742425876018</v>
       </c>
       <c r="G5">
-        <v>1.011227408084276</v>
+        <v>1.035762774663075</v>
       </c>
       <c r="H5">
-        <v>0.9972143867610728</v>
+        <v>0.9909940070889486</v>
       </c>
       <c r="I5">
-        <v>0.9971813486215854</v>
+        <v>0.9910955855525592</v>
       </c>
       <c r="J5">
-        <v>1.011227408084276</v>
+        <v>1.035762774663075</v>
       </c>
       <c r="K5">
-        <v>0.9972143867610728</v>
+        <v>0.9909940070889486</v>
       </c>
       <c r="L5">
-        <v>0.9971813486215854</v>
+        <v>0.9910955855525592</v>
       </c>
       <c r="M5">
-        <v>1.004204378352931</v>
+        <v>1.013429180107817</v>
       </c>
       <c r="N5">
-        <v>1.004204378352931</v>
+        <v>1.013429180107817</v>
       </c>
       <c r="O5">
-        <v>1.004863828038257</v>
+        <v>1.015501462497754</v>
       </c>
       <c r="P5">
-        <v>1.001874381155645</v>
+        <v>1.005950789101528</v>
       </c>
       <c r="Q5">
-        <v>1.001874381155645</v>
+        <v>1.005950789101528</v>
       </c>
       <c r="R5">
-        <v>1.000709382557002</v>
+        <v>1.002211593598383</v>
       </c>
       <c r="S5">
-        <v>1.000709382557002</v>
+        <v>1.002211593598383</v>
       </c>
       <c r="T5">
-        <v>1.000245694480911</v>
+        <v>1.000806434631626</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9958800180012339</v>
+        <v>0.990014703920455</v>
       </c>
       <c r="D6">
-        <v>0.9959137632541213</v>
+        <v>0.9899345189204539</v>
       </c>
       <c r="E6">
-        <v>1.009068104617452</v>
+        <v>1.021957790965908</v>
       </c>
       <c r="F6">
-        <v>0.9889672965555452</v>
+        <v>0.973482114602273</v>
       </c>
       <c r="G6">
-        <v>1.016467412192414</v>
+        <v>1.03997087193182</v>
       </c>
       <c r="H6">
-        <v>0.9959137632541213</v>
+        <v>0.9899345189204539</v>
       </c>
       <c r="I6">
-        <v>0.9958661364656642</v>
+        <v>0.9900477073295457</v>
       </c>
       <c r="J6">
-        <v>1.016467412192414</v>
+        <v>1.03997087193182</v>
       </c>
       <c r="K6">
-        <v>0.9959137632541213</v>
+        <v>0.9899345189204539</v>
       </c>
       <c r="L6">
-        <v>0.9958661364656642</v>
+        <v>0.9900477073295457</v>
       </c>
       <c r="M6">
-        <v>1.006166774329039</v>
+        <v>1.015009289630683</v>
       </c>
       <c r="N6">
-        <v>1.006166774329039</v>
+        <v>1.015009289630683</v>
       </c>
       <c r="O6">
-        <v>1.007133884425177</v>
+        <v>1.017325456742425</v>
       </c>
       <c r="P6">
-        <v>1.002749103970733</v>
+        <v>1.006651032727273</v>
       </c>
       <c r="Q6">
-        <v>1.002749103970733</v>
+        <v>1.006651032727273</v>
       </c>
       <c r="R6">
-        <v>1.00104026879158</v>
+        <v>1.002471904275568</v>
       </c>
       <c r="S6">
-        <v>1.00104026879158</v>
+        <v>1.002471904275568</v>
       </c>
       <c r="T6">
-        <v>1.000360455181072</v>
+        <v>1.000901284611743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999501768484103</v>
+        <v>1.007179878289065</v>
       </c>
       <c r="D7">
-        <v>0.9999497453555698</v>
+        <v>1.006921153532153</v>
       </c>
       <c r="E7">
-        <v>1.000109557627781</v>
+        <v>0.9841724473324638</v>
       </c>
       <c r="F7">
-        <v>0.9998677319092391</v>
+        <v>1.019499851444275</v>
       </c>
       <c r="G7">
-        <v>1.000199455189465</v>
+        <v>0.9713762983977157</v>
       </c>
       <c r="H7">
-        <v>0.9999497453555698</v>
+        <v>1.006921153532153</v>
       </c>
       <c r="I7">
-        <v>0.9999503525527518</v>
+        <v>1.007286358797474</v>
       </c>
       <c r="J7">
-        <v>1.000199455189465</v>
+        <v>0.9713762983977157</v>
       </c>
       <c r="K7">
-        <v>0.9999497453555698</v>
+        <v>1.006921153532153</v>
       </c>
       <c r="L7">
-        <v>0.9999503525527518</v>
+        <v>1.007286358797474</v>
       </c>
       <c r="M7">
-        <v>1.000074903871108</v>
+        <v>0.9893313285975949</v>
       </c>
       <c r="N7">
-        <v>1.000074903871108</v>
+        <v>0.9893313285975949</v>
       </c>
       <c r="O7">
-        <v>1.000086455123333</v>
+        <v>0.9876117015092177</v>
       </c>
       <c r="P7">
-        <v>1.000033184365929</v>
+        <v>0.9951946035757809</v>
       </c>
       <c r="Q7">
-        <v>1.000033184365929</v>
+        <v>0.9951946035757809</v>
       </c>
       <c r="R7">
-        <v>1.000012324613339</v>
+        <v>0.9981262410648739</v>
       </c>
       <c r="S7">
-        <v>1.000012324613339</v>
+        <v>0.9981262410648739</v>
       </c>
       <c r="T7">
-        <v>1.000004503247203</v>
+        <v>0.9994059979655247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998840253242379</v>
+        <v>1.00700142983647</v>
       </c>
       <c r="D8">
-        <v>0.9998832094753982</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="E8">
-        <v>1.000255043722395</v>
+        <v>0.9845651671020453</v>
       </c>
       <c r="F8">
-        <v>0.9996918527672719</v>
+        <v>1.019022508434907</v>
       </c>
       <c r="G8">
-        <v>1.000464203840418</v>
+        <v>0.9720896908001571</v>
       </c>
       <c r="H8">
-        <v>0.9998832094753982</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="I8">
-        <v>0.9998843591571224</v>
+        <v>1.007107464427715</v>
       </c>
       <c r="J8">
-        <v>1.000464203840418</v>
+        <v>0.9720896908001571</v>
       </c>
       <c r="K8">
-        <v>0.9998832094753982</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="L8">
-        <v>0.9998843591571224</v>
+        <v>1.007107464427715</v>
       </c>
       <c r="M8">
-        <v>1.00017428149877</v>
+        <v>0.989598577613936</v>
       </c>
       <c r="N8">
-        <v>1.00017428149877</v>
+        <v>0.989598577613936</v>
       </c>
       <c r="O8">
-        <v>1.000201202239978</v>
+        <v>0.9879207741099725</v>
       </c>
       <c r="P8">
-        <v>1.00007725749098</v>
+        <v>0.9953136479842692</v>
       </c>
       <c r="Q8">
-        <v>1.00007725749098</v>
+        <v>0.9953136479842692</v>
       </c>
       <c r="R8">
-        <v>1.000028745487084</v>
+        <v>0.9981711831694358</v>
       </c>
       <c r="S8">
-        <v>1.000028745487084</v>
+        <v>0.9981711831694358</v>
       </c>
       <c r="T8">
-        <v>1.000010449047807</v>
+        <v>0.9994216748877051</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998455637341807</v>
+        <v>1.006830207128118</v>
       </c>
       <c r="D9">
-        <v>0.9998450548989788</v>
+        <v>1.006571729073635</v>
       </c>
       <c r="E9">
-        <v>1.000339696980612</v>
+        <v>0.984941754223208</v>
       </c>
       <c r="F9">
-        <v>0.9995888696191018</v>
+        <v>1.018567057979603</v>
       </c>
       <c r="G9">
-        <v>1.000617936115851</v>
+        <v>0.972774891556328</v>
       </c>
       <c r="H9">
-        <v>0.9998450548989788</v>
+        <v>1.006571729073635</v>
       </c>
       <c r="I9">
-        <v>0.9998457715697439</v>
+        <v>1.006936586131706</v>
       </c>
       <c r="J9">
-        <v>1.000617936115851</v>
+        <v>0.972774891556328</v>
       </c>
       <c r="K9">
-        <v>0.9998450548989788</v>
+        <v>1.006571729073635</v>
       </c>
       <c r="L9">
-        <v>0.9998457715697439</v>
+        <v>1.006936586131706</v>
       </c>
       <c r="M9">
-        <v>1.000231853842797</v>
+        <v>0.989855738844017</v>
       </c>
       <c r="N9">
-        <v>1.000231853842797</v>
+        <v>0.989855738844017</v>
       </c>
       <c r="O9">
-        <v>1.000267801555402</v>
+        <v>0.988217743970414</v>
       </c>
       <c r="P9">
-        <v>1.000102920861524</v>
+        <v>0.9954277355872229</v>
       </c>
       <c r="Q9">
-        <v>1.000102920861524</v>
+        <v>0.9954277355872229</v>
       </c>
       <c r="R9">
-        <v>1.000038454370888</v>
+        <v>0.9982137339588257</v>
       </c>
       <c r="S9">
-        <v>1.000038454370888</v>
+        <v>0.9982137339588257</v>
       </c>
       <c r="T9">
-        <v>1.000013815486411</v>
+        <v>0.9994370376820996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9996592074147341</v>
+        <v>1.006598223673826</v>
       </c>
       <c r="D10">
-        <v>0.9996573063996075</v>
+        <v>1.006348070427965</v>
       </c>
       <c r="E10">
-        <v>1.000749509944354</v>
+        <v>0.9854531412459013</v>
       </c>
       <c r="F10">
-        <v>0.9990938271259884</v>
+        <v>1.017937062367859</v>
       </c>
       <c r="G10">
-        <v>1.001363873660887</v>
+        <v>0.9736997413322959</v>
       </c>
       <c r="H10">
-        <v>0.9996573063996075</v>
+        <v>1.006348070427965</v>
       </c>
       <c r="I10">
-        <v>0.9996599897120948</v>
+        <v>1.00670117712546</v>
       </c>
       <c r="J10">
-        <v>1.001363873660887</v>
+        <v>0.9736997413322959</v>
       </c>
       <c r="K10">
-        <v>0.9996573063996075</v>
+        <v>1.006348070427965</v>
       </c>
       <c r="L10">
-        <v>0.9996599897120948</v>
+        <v>1.00670117712546</v>
       </c>
       <c r="M10">
-        <v>1.000511931686491</v>
+        <v>0.9902004592288778</v>
       </c>
       <c r="N10">
-        <v>1.000511931686491</v>
+        <v>0.9902004592288778</v>
       </c>
       <c r="O10">
-        <v>1.000591124439112</v>
+        <v>0.988618019901219</v>
       </c>
       <c r="P10">
-        <v>1.000227056590863</v>
+        <v>0.9955829962952402</v>
       </c>
       <c r="Q10">
-        <v>1.000227056590863</v>
+        <v>0.9955829962952402</v>
       </c>
       <c r="R10">
-        <v>1.000084619043049</v>
+        <v>0.9982742648284213</v>
       </c>
       <c r="S10">
-        <v>1.000084619043049</v>
+        <v>0.9982742648284213</v>
       </c>
       <c r="T10">
-        <v>1.000030619042944</v>
+        <v>0.9994562360288843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9994575783789246</v>
+        <v>0.9992156592969531</v>
       </c>
       <c r="D11">
-        <v>0.999456314246812</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="E11">
-        <v>1.001193169174413</v>
+        <v>1.0017263843225</v>
       </c>
       <c r="F11">
-        <v>0.9985552801823568</v>
+        <v>0.9978991677150296</v>
       </c>
       <c r="G11">
-        <v>1.002170150584252</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="H11">
-        <v>0.999456314246812</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="I11">
-        <v>0.9994581013797135</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="J11">
-        <v>1.002170150584252</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="K11">
-        <v>0.999456314246812</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="L11">
-        <v>0.9994581013797135</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="M11">
-        <v>1.000814125981983</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="N11">
-        <v>1.000814125981983</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="O11">
-        <v>1.000940473712793</v>
+        <v>1.001358036899593</v>
       </c>
       <c r="P11">
-        <v>1.000361522070259</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="Q11">
-        <v>1.000361522070259</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="R11">
-        <v>1.000135220114397</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="S11">
-        <v>1.000135220114397</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="T11">
-        <v>1.000048432324412</v>
+        <v>1.000068562309893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.003678859927265</v>
+        <v>0.9996697554264007</v>
       </c>
       <c r="D12">
-        <v>1.004083142202896</v>
+        <v>0.9996718303162906</v>
       </c>
       <c r="E12">
-        <v>0.9919562085308015</v>
+        <v>1.000726793142548</v>
       </c>
       <c r="F12">
-        <v>1.009257961053271</v>
+        <v>0.9991165168004627</v>
       </c>
       <c r="G12">
-        <v>0.9851348086546712</v>
+        <v>1.001320213224666</v>
       </c>
       <c r="H12">
-        <v>1.004083142202896</v>
+        <v>0.9996718303162906</v>
       </c>
       <c r="I12">
-        <v>1.003512512846241</v>
+        <v>0.9996688997362605</v>
       </c>
       <c r="J12">
-        <v>0.9851348086546712</v>
+        <v>1.001320213224666</v>
       </c>
       <c r="K12">
-        <v>1.004083142202896</v>
+        <v>0.9996718303162906</v>
       </c>
       <c r="L12">
-        <v>1.003512512846241</v>
+        <v>0.9996688997362605</v>
       </c>
       <c r="M12">
-        <v>0.9943236607504563</v>
+        <v>1.000494556480463</v>
       </c>
       <c r="N12">
-        <v>0.9943236607504563</v>
+        <v>1.000494556480463</v>
       </c>
       <c r="O12">
-        <v>0.9935345100105714</v>
+        <v>1.000571968701158</v>
       </c>
       <c r="P12">
-        <v>0.9975768212346029</v>
+        <v>1.000220314425739</v>
       </c>
       <c r="Q12">
-        <v>0.9975768212346029</v>
+        <v>1.000220314425739</v>
       </c>
       <c r="R12">
-        <v>0.9992034014766762</v>
+        <v>1.000083193398377</v>
       </c>
       <c r="S12">
-        <v>0.9992034014766762</v>
+        <v>1.000083193398377</v>
       </c>
       <c r="T12">
-        <v>0.9996039155358577</v>
+        <v>1.000029001441105</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000924269029135</v>
+        <v>0.9989476109035973</v>
       </c>
       <c r="D13">
-        <v>1.000754173015497</v>
+        <v>0.9989571419523862</v>
       </c>
       <c r="E13">
-        <v>0.9979456943120095</v>
+        <v>1.002316437977546</v>
       </c>
       <c r="F13">
-        <v>1.002697115514953</v>
+        <v>0.9971806055004212</v>
       </c>
       <c r="G13">
-        <v>0.9963659284845212</v>
+        <v>1.004206034623832</v>
       </c>
       <c r="H13">
-        <v>1.000754173015497</v>
+        <v>0.9989571419523862</v>
       </c>
       <c r="I13">
-        <v>1.0009942597083</v>
+        <v>0.9989436847890218</v>
       </c>
       <c r="J13">
-        <v>0.9963659284845212</v>
+        <v>1.004206034623832</v>
       </c>
       <c r="K13">
-        <v>1.000754173015497</v>
+        <v>0.9989571419523862</v>
       </c>
       <c r="L13">
-        <v>1.0009942597083</v>
+        <v>0.9989436847890218</v>
       </c>
       <c r="M13">
-        <v>0.9986800940964107</v>
+        <v>1.001574859706427</v>
       </c>
       <c r="N13">
-        <v>0.9986800940964107</v>
+        <v>1.001574859706427</v>
       </c>
       <c r="O13">
-        <v>0.998435294168277</v>
+        <v>1.001822052463466</v>
       </c>
       <c r="P13">
-        <v>0.9993714537361061</v>
+        <v>1.000702287121747</v>
       </c>
       <c r="Q13">
-        <v>0.9993714537361061</v>
+        <v>1.000702287121746</v>
       </c>
       <c r="R13">
-        <v>0.9997171335559538</v>
+        <v>1.000266000829406</v>
       </c>
       <c r="S13">
-        <v>0.9997171335559538</v>
+        <v>1.000266000829406</v>
       </c>
       <c r="T13">
-        <v>0.9999469066774026</v>
+        <v>1.000091919291134</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008594582493255</v>
+        <v>0.9978872932459033</v>
       </c>
       <c r="D14">
-        <v>1.008440267632869</v>
+        <v>0.9979042575766558</v>
       </c>
       <c r="E14">
-        <v>0.9810729601344501</v>
+        <v>1.004650045484775</v>
       </c>
       <c r="F14">
-        <v>1.023129671862989</v>
+        <v>0.9943429380367339</v>
       </c>
       <c r="G14">
-        <v>0.9656788526781157</v>
+        <v>1.008444548183054</v>
       </c>
       <c r="H14">
-        <v>1.008440267632869</v>
+        <v>0.9979042575766558</v>
       </c>
       <c r="I14">
-        <v>1.008658063000247</v>
+        <v>0.9978803131310949</v>
       </c>
       <c r="J14">
-        <v>0.9656788526781157</v>
+        <v>1.008444548183054</v>
       </c>
       <c r="K14">
-        <v>1.008440267632869</v>
+        <v>0.9979042575766558</v>
       </c>
       <c r="L14">
-        <v>1.008658063000247</v>
+        <v>0.9978803131310949</v>
       </c>
       <c r="M14">
-        <v>0.9871684578391815</v>
+        <v>1.003162430657075</v>
       </c>
       <c r="N14">
-        <v>0.9871684578391815</v>
+        <v>1.003162430657075</v>
       </c>
       <c r="O14">
-        <v>0.9851366252709376</v>
+        <v>1.003658302266308</v>
       </c>
       <c r="P14">
-        <v>0.994259061103744</v>
+        <v>1.001409706296935</v>
       </c>
       <c r="Q14">
-        <v>0.994259061103744</v>
+        <v>1.001409706296935</v>
       </c>
       <c r="R14">
-        <v>0.9978043627360252</v>
+        <v>1.000533344116865</v>
       </c>
       <c r="S14">
-        <v>0.9978043627360252</v>
+        <v>1.000533344116865</v>
       </c>
       <c r="T14">
-        <v>0.9992623996336542</v>
+        <v>1.00018489927637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002232186217677</v>
+        <v>0.9992407352824531</v>
       </c>
       <c r="D15">
-        <v>1.002295542145029</v>
+        <v>0.9992473852668919</v>
       </c>
       <c r="E15">
-        <v>0.9950969875170368</v>
+        <v>1.001671200556589</v>
       </c>
       <c r="F15">
-        <v>1.005865936989239</v>
+        <v>0.9979662117509901</v>
       </c>
       <c r="G15">
-        <v>0.991047796534645</v>
+        <v>1.003034599795769</v>
       </c>
       <c r="H15">
-        <v>1.002295542145029</v>
+        <v>0.9992473852668919</v>
       </c>
       <c r="I15">
-        <v>1.002206115577125</v>
+        <v>0.9992379969309925</v>
       </c>
       <c r="J15">
-        <v>0.991047796534645</v>
+        <v>1.003034599795769</v>
       </c>
       <c r="K15">
-        <v>1.002295542145029</v>
+        <v>0.9992473852668919</v>
       </c>
       <c r="L15">
-        <v>1.002206115577125</v>
+        <v>0.9992379969309925</v>
       </c>
       <c r="M15">
-        <v>0.9966269560558849</v>
+        <v>1.001136298363381</v>
       </c>
       <c r="N15">
-        <v>0.9966269560558849</v>
+        <v>1.001136298363381</v>
       </c>
       <c r="O15">
-        <v>0.9961169665429356</v>
+        <v>1.00131459909445</v>
       </c>
       <c r="P15">
-        <v>0.9985164847522663</v>
+        <v>1.000506660664551</v>
       </c>
       <c r="Q15">
-        <v>0.9985164847522663</v>
+        <v>1.000506660664551</v>
       </c>
       <c r="R15">
-        <v>0.9994612491004571</v>
+        <v>1.000191841815136</v>
       </c>
       <c r="S15">
-        <v>0.9994612491004571</v>
+        <v>1.000191841815136</v>
       </c>
       <c r="T15">
-        <v>0.9997907608301252</v>
+        <v>1.000066354930614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.985192101790878</v>
+        <v>0.9985342458183785</v>
       </c>
       <c r="D16">
-        <v>0.9853060375276772</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="E16">
-        <v>1.032591400657903</v>
+        <v>1.003226235618438</v>
       </c>
       <c r="F16">
-        <v>0.9603565911374085</v>
+        <v>0.9960738577929245</v>
       </c>
       <c r="G16">
-        <v>1.059189421155252</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="H16">
-        <v>0.9853060375276772</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="I16">
-        <v>0.9851452108154958</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="J16">
-        <v>1.059189421155252</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="K16">
-        <v>0.9853060375276772</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="L16">
-        <v>0.9851452108154958</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="M16">
-        <v>1.022167315985374</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="N16">
-        <v>1.022167315985374</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="O16">
-        <v>1.025642010876217</v>
+        <v>1.002537837025591</v>
       </c>
       <c r="P16">
-        <v>1.009880223166142</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="Q16">
-        <v>1.009880223166142</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="R16">
-        <v>1.003736676756526</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="S16">
-        <v>1.003736676756526</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="T16">
-        <v>1.001296793847436</v>
+        <v>1.000128106657115</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9878890587447938</v>
+        <v>0.9971909874993824</v>
       </c>
       <c r="D17">
-        <v>0.9879474620601781</v>
+        <v>0.9972143867610728</v>
       </c>
       <c r="E17">
-        <v>1.026651262906211</v>
+        <v>1.006182727408908</v>
       </c>
       <c r="F17">
-        <v>0.9676243532307456</v>
+        <v>0.9924773085102437</v>
       </c>
       <c r="G17">
-        <v>1.04842215344725</v>
+        <v>1.011227408084276</v>
       </c>
       <c r="H17">
-        <v>0.9879474620601781</v>
+        <v>0.9972143867610728</v>
       </c>
       <c r="I17">
-        <v>0.9878650213057757</v>
+        <v>0.9971813486215854</v>
       </c>
       <c r="J17">
-        <v>1.04842215344725</v>
+        <v>1.011227408084276</v>
       </c>
       <c r="K17">
-        <v>0.9879474620601781</v>
+        <v>0.9972143867610728</v>
       </c>
       <c r="L17">
-        <v>0.9878650213057757</v>
+        <v>0.9971813486215854</v>
       </c>
       <c r="M17">
-        <v>1.018143587376513</v>
+        <v>1.004204378352931</v>
       </c>
       <c r="N17">
-        <v>1.018143587376513</v>
+        <v>1.004204378352931</v>
       </c>
       <c r="O17">
-        <v>1.020979479219745</v>
+        <v>1.004863828038257</v>
       </c>
       <c r="P17">
-        <v>1.008078212271068</v>
+        <v>1.001874381155645</v>
       </c>
       <c r="Q17">
-        <v>1.008078212271068</v>
+        <v>1.001874381155645</v>
       </c>
       <c r="R17">
-        <v>1.003045524718345</v>
+        <v>1.000709382557002</v>
       </c>
       <c r="S17">
-        <v>1.003045524718345</v>
+        <v>1.000709382557002</v>
       </c>
       <c r="T17">
-        <v>1.001066551949159</v>
+        <v>1.000245694480911</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9933289644370907</v>
+        <v>0.9958800180012339</v>
       </c>
       <c r="D18">
-        <v>0.9932778783529508</v>
+        <v>0.9959137632541213</v>
       </c>
       <c r="E18">
-        <v>1.014669995439299</v>
+        <v>1.009068104617452</v>
       </c>
       <c r="F18">
-        <v>0.9822803805514722</v>
+        <v>0.9889672965555452</v>
       </c>
       <c r="G18">
-        <v>1.026703057326189</v>
+        <v>1.016467412192414</v>
       </c>
       <c r="H18">
-        <v>0.9932778783529508</v>
+        <v>0.9959137632541213</v>
       </c>
       <c r="I18">
-        <v>0.9933499912262485</v>
+        <v>0.9958661364656642</v>
       </c>
       <c r="J18">
-        <v>1.026703057326189</v>
+        <v>1.016467412192414</v>
       </c>
       <c r="K18">
-        <v>0.9932778783529508</v>
+        <v>0.9959137632541213</v>
       </c>
       <c r="L18">
-        <v>0.9933499912262485</v>
+        <v>0.9958661364656642</v>
       </c>
       <c r="M18">
-        <v>1.010026524276219</v>
+        <v>1.006166774329039</v>
       </c>
       <c r="N18">
-        <v>1.010026524276219</v>
+        <v>1.006166774329039</v>
       </c>
       <c r="O18">
-        <v>1.011574347997246</v>
+        <v>1.007133884425177</v>
       </c>
       <c r="P18">
-        <v>1.004443642301796</v>
+        <v>1.002749103970733</v>
       </c>
       <c r="Q18">
-        <v>1.004443642301796</v>
+        <v>1.002749103970733</v>
       </c>
       <c r="R18">
-        <v>1.001652201314585</v>
+        <v>1.00104026879158</v>
       </c>
       <c r="S18">
-        <v>1.001652201314585</v>
+        <v>1.00104026879158</v>
       </c>
       <c r="T18">
-        <v>1.000601711222209</v>
+        <v>1.000360455181072</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9927255576354076</v>
+        <v>0.9999501768484103</v>
       </c>
       <c r="D19">
-        <v>0.9926492751794049</v>
+        <v>0.9999497453555698</v>
       </c>
       <c r="E19">
-        <v>1.015994395620708</v>
+        <v>1.000109557627781</v>
       </c>
       <c r="F19">
-        <v>0.9807057142226133</v>
+        <v>0.9998677319092391</v>
       </c>
       <c r="G19">
-        <v>1.029126023041376</v>
+        <v>1.000199455189465</v>
       </c>
       <c r="H19">
-        <v>0.9926492751794049</v>
+        <v>0.9999497453555698</v>
       </c>
       <c r="I19">
-        <v>0.9927569498690941</v>
+        <v>0.9999503525527518</v>
       </c>
       <c r="J19">
-        <v>1.029126023041376</v>
+        <v>1.000199455189465</v>
       </c>
       <c r="K19">
-        <v>0.9926492751794049</v>
+        <v>0.9999497453555698</v>
       </c>
       <c r="L19">
-        <v>0.9927569498690941</v>
+        <v>0.9999503525527518</v>
       </c>
       <c r="M19">
-        <v>1.010941486455235</v>
+        <v>1.000074903871108</v>
       </c>
       <c r="N19">
-        <v>1.010941486455235</v>
+        <v>1.000074903871108</v>
       </c>
       <c r="O19">
-        <v>1.012625789510393</v>
+        <v>1.000086455123333</v>
       </c>
       <c r="P19">
-        <v>1.004844082696625</v>
+        <v>1.000033184365929</v>
       </c>
       <c r="Q19">
-        <v>1.004844082696625</v>
+        <v>1.000033184365929</v>
       </c>
       <c r="R19">
-        <v>1.00179538081732</v>
+        <v>1.000012324613339</v>
       </c>
       <c r="S19">
-        <v>1.00179538081732</v>
+        <v>1.000012324613339</v>
       </c>
       <c r="T19">
-        <v>1.000659652594767</v>
+        <v>1.000004503247203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999968195797659</v>
+        <v>0.9998840253242379</v>
       </c>
       <c r="D20">
-        <v>0.9999962252482356</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="E20">
-        <v>1.000006923348987</v>
+        <v>1.000255043722395</v>
       </c>
       <c r="F20">
-        <v>0.9999923350395155</v>
+        <v>0.9996918527672719</v>
       </c>
       <c r="G20">
-        <v>1.000012944401246</v>
+        <v>1.000464203840418</v>
       </c>
       <c r="H20">
-        <v>0.9999962252482356</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="I20">
-        <v>0.9999970623233685</v>
+        <v>0.9998843591571224</v>
       </c>
       <c r="J20">
-        <v>1.000012944401246</v>
+        <v>1.000464203840418</v>
       </c>
       <c r="K20">
-        <v>0.9999962252482356</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="L20">
-        <v>0.9999970623233685</v>
+        <v>0.9998843591571224</v>
       </c>
       <c r="M20">
-        <v>1.000005003362307</v>
+        <v>1.00017428149877</v>
       </c>
       <c r="N20">
-        <v>1.000005003362307</v>
+        <v>1.00017428149877</v>
       </c>
       <c r="O20">
-        <v>1.000005643357867</v>
+        <v>1.000201202239978</v>
       </c>
       <c r="P20">
-        <v>1.000002077324283</v>
+        <v>1.00007725749098</v>
       </c>
       <c r="Q20">
-        <v>1.000002077324283</v>
+        <v>1.00007725749098</v>
       </c>
       <c r="R20">
-        <v>1.000000614305271</v>
+        <v>1.000028745487084</v>
       </c>
       <c r="S20">
-        <v>1.000000614305271</v>
+        <v>1.000028745487084</v>
       </c>
       <c r="T20">
-        <v>1.000000384990186</v>
+        <v>1.000010449047807</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999335485630793</v>
+        <v>0.9998455637341807</v>
       </c>
       <c r="D21">
-        <v>0.9999334129682838</v>
+        <v>0.9998450548989788</v>
       </c>
       <c r="E21">
-        <v>1.000146175627824</v>
+        <v>1.000339696980612</v>
       </c>
       <c r="F21">
-        <v>0.9998229867668249</v>
+        <v>0.9995888696191018</v>
       </c>
       <c r="G21">
-        <v>1.000265857269597</v>
+        <v>1.000617936115851</v>
       </c>
       <c r="H21">
-        <v>0.9999334129682838</v>
+        <v>0.9998450548989788</v>
       </c>
       <c r="I21">
-        <v>0.9999336028302104</v>
+        <v>0.9998457715697439</v>
       </c>
       <c r="J21">
-        <v>1.000265857269597</v>
+        <v>1.000617936115851</v>
       </c>
       <c r="K21">
-        <v>0.9999334129682838</v>
+        <v>0.9998450548989788</v>
       </c>
       <c r="L21">
-        <v>0.9999336028302104</v>
+        <v>0.9998457715697439</v>
       </c>
       <c r="M21">
-        <v>1.000099730049904</v>
+        <v>1.000231853842797</v>
       </c>
       <c r="N21">
-        <v>1.000099730049904</v>
+        <v>1.000231853842797</v>
       </c>
       <c r="O21">
-        <v>1.000115211909211</v>
+        <v>1.000267801555402</v>
       </c>
       <c r="P21">
-        <v>1.000044291022697</v>
+        <v>1.000102920861524</v>
       </c>
       <c r="Q21">
-        <v>1.000044291022697</v>
+        <v>1.000102920861524</v>
       </c>
       <c r="R21">
-        <v>1.000016571509094</v>
+        <v>1.000038454370888</v>
       </c>
       <c r="S21">
-        <v>1.000016571509094</v>
+        <v>1.000038454370888</v>
       </c>
       <c r="T21">
-        <v>1.00000593067097</v>
+        <v>1.000013815486411</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9997661777571404</v>
+        <v>0.9996592074147341</v>
       </c>
       <c r="D22">
-        <v>0.9997675346296433</v>
+        <v>0.9996573063996075</v>
       </c>
       <c r="E22">
-        <v>1.000514573987834</v>
+        <v>1.000749509944354</v>
       </c>
       <c r="F22">
-        <v>0.9993746270831888</v>
+        <v>0.9990938271259884</v>
       </c>
       <c r="G22">
-        <v>1.000934783784859</v>
+        <v>1.001363873660887</v>
       </c>
       <c r="H22">
-        <v>0.9997675346296433</v>
+        <v>0.9996573063996075</v>
       </c>
       <c r="I22">
-        <v>0.9997656198022739</v>
+        <v>0.9996599897120948</v>
       </c>
       <c r="J22">
-        <v>1.000934783784859</v>
+        <v>1.001363873660887</v>
       </c>
       <c r="K22">
-        <v>0.9997675346296433</v>
+        <v>0.9996573063996075</v>
       </c>
       <c r="L22">
-        <v>0.9997656198022739</v>
+        <v>0.9996599897120948</v>
       </c>
       <c r="M22">
-        <v>1.000350201793567</v>
+        <v>1.000511931686491</v>
       </c>
       <c r="N22">
-        <v>1.000350201793567</v>
+        <v>1.000511931686491</v>
       </c>
       <c r="O22">
-        <v>1.000404992524989</v>
+        <v>1.000591124439112</v>
       </c>
       <c r="P22">
-        <v>1.000155979405592</v>
+        <v>1.000227056590863</v>
       </c>
       <c r="Q22">
-        <v>1.000155979405592</v>
+        <v>1.000227056590863</v>
       </c>
       <c r="R22">
-        <v>1.000058868211605</v>
+        <v>1.000084619043049</v>
       </c>
       <c r="S22">
-        <v>1.000058868211605</v>
+        <v>1.000084619043049</v>
       </c>
       <c r="T22">
-        <v>1.000020552840823</v>
+        <v>1.000030619042944</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9994575783789246</v>
+      </c>
+      <c r="D23">
+        <v>0.999456314246812</v>
+      </c>
+      <c r="E23">
+        <v>1.001193169174413</v>
+      </c>
+      <c r="F23">
+        <v>0.9985552801823568</v>
+      </c>
+      <c r="G23">
+        <v>1.002170150584252</v>
+      </c>
+      <c r="H23">
+        <v>0.999456314246812</v>
+      </c>
+      <c r="I23">
+        <v>0.9994581013797135</v>
+      </c>
+      <c r="J23">
+        <v>1.002170150584252</v>
+      </c>
+      <c r="K23">
+        <v>0.999456314246812</v>
+      </c>
+      <c r="L23">
+        <v>0.9994581013797135</v>
+      </c>
+      <c r="M23">
+        <v>1.000814125981983</v>
+      </c>
+      <c r="N23">
+        <v>1.000814125981983</v>
+      </c>
+      <c r="O23">
+        <v>1.000940473712793</v>
+      </c>
+      <c r="P23">
+        <v>1.000361522070259</v>
+      </c>
+      <c r="Q23">
+        <v>1.000361522070259</v>
+      </c>
+      <c r="R23">
+        <v>1.000135220114397</v>
+      </c>
+      <c r="S23">
+        <v>1.000135220114397</v>
+      </c>
+      <c r="T23">
+        <v>1.000048432324412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.003678859927265</v>
+      </c>
+      <c r="D24">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="E24">
+        <v>0.9919562085308015</v>
+      </c>
+      <c r="F24">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G24">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="H24">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="I24">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="J24">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K24">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="L24">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="M24">
+        <v>0.9943236607504563</v>
+      </c>
+      <c r="N24">
+        <v>0.9943236607504563</v>
+      </c>
+      <c r="O24">
+        <v>0.9935345100105714</v>
+      </c>
+      <c r="P24">
+        <v>0.9975768212346029</v>
+      </c>
+      <c r="Q24">
+        <v>0.9975768212346029</v>
+      </c>
+      <c r="R24">
+        <v>0.9992034014766762</v>
+      </c>
+      <c r="S24">
+        <v>0.9992034014766762</v>
+      </c>
+      <c r="T24">
+        <v>0.9996039155358577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000924269029135</v>
+      </c>
+      <c r="D25">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="E25">
+        <v>0.9979456943120095</v>
+      </c>
+      <c r="F25">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G25">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="H25">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="I25">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="J25">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="K25">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="L25">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="M25">
+        <v>0.9986800940964107</v>
+      </c>
+      <c r="N25">
+        <v>0.9986800940964107</v>
+      </c>
+      <c r="O25">
+        <v>0.998435294168277</v>
+      </c>
+      <c r="P25">
+        <v>0.9993714537361061</v>
+      </c>
+      <c r="Q25">
+        <v>0.9993714537361061</v>
+      </c>
+      <c r="R25">
+        <v>0.9997171335559538</v>
+      </c>
+      <c r="S25">
+        <v>0.9997171335559538</v>
+      </c>
+      <c r="T25">
+        <v>0.9999469066774026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.008594582493255</v>
+      </c>
+      <c r="D26">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="E26">
+        <v>0.9810729601344501</v>
+      </c>
+      <c r="F26">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G26">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="H26">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="I26">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="J26">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="K26">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="L26">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="M26">
+        <v>0.9871684578391815</v>
+      </c>
+      <c r="N26">
+        <v>0.9871684578391815</v>
+      </c>
+      <c r="O26">
+        <v>0.9851366252709376</v>
+      </c>
+      <c r="P26">
+        <v>0.994259061103744</v>
+      </c>
+      <c r="Q26">
+        <v>0.994259061103744</v>
+      </c>
+      <c r="R26">
+        <v>0.9978043627360252</v>
+      </c>
+      <c r="S26">
+        <v>0.9978043627360252</v>
+      </c>
+      <c r="T26">
+        <v>0.9992623996336542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.002232186217677</v>
+      </c>
+      <c r="D27">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="E27">
+        <v>0.9950969875170368</v>
+      </c>
+      <c r="F27">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G27">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="H27">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="I27">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="J27">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="K27">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="L27">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="M27">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="N27">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="O27">
+        <v>0.9961169665429356</v>
+      </c>
+      <c r="P27">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="Q27">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="R27">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="S27">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="T27">
+        <v>0.9997907608301252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.985192101790878</v>
+      </c>
+      <c r="D28">
+        <v>0.9853060375276772</v>
+      </c>
+      <c r="E28">
+        <v>1.032591400657903</v>
+      </c>
+      <c r="F28">
+        <v>0.9603565911374085</v>
+      </c>
+      <c r="G28">
+        <v>1.059189421155252</v>
+      </c>
+      <c r="H28">
+        <v>0.9853060375276772</v>
+      </c>
+      <c r="I28">
+        <v>0.9851452108154958</v>
+      </c>
+      <c r="J28">
+        <v>1.059189421155252</v>
+      </c>
+      <c r="K28">
+        <v>0.9853060375276772</v>
+      </c>
+      <c r="L28">
+        <v>0.9851452108154958</v>
+      </c>
+      <c r="M28">
+        <v>1.022167315985374</v>
+      </c>
+      <c r="N28">
+        <v>1.022167315985374</v>
+      </c>
+      <c r="O28">
+        <v>1.025642010876217</v>
+      </c>
+      <c r="P28">
+        <v>1.009880223166142</v>
+      </c>
+      <c r="Q28">
+        <v>1.009880223166142</v>
+      </c>
+      <c r="R28">
+        <v>1.003736676756526</v>
+      </c>
+      <c r="S28">
+        <v>1.003736676756526</v>
+      </c>
+      <c r="T28">
+        <v>1.001296793847436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9878890587447938</v>
+      </c>
+      <c r="D29">
+        <v>0.9879474620601781</v>
+      </c>
+      <c r="E29">
+        <v>1.026651262906211</v>
+      </c>
+      <c r="F29">
+        <v>0.9676243532307456</v>
+      </c>
+      <c r="G29">
+        <v>1.04842215344725</v>
+      </c>
+      <c r="H29">
+        <v>0.9879474620601781</v>
+      </c>
+      <c r="I29">
+        <v>0.9878650213057757</v>
+      </c>
+      <c r="J29">
+        <v>1.04842215344725</v>
+      </c>
+      <c r="K29">
+        <v>0.9879474620601781</v>
+      </c>
+      <c r="L29">
+        <v>0.9878650213057757</v>
+      </c>
+      <c r="M29">
+        <v>1.018143587376513</v>
+      </c>
+      <c r="N29">
+        <v>1.018143587376513</v>
+      </c>
+      <c r="O29">
+        <v>1.020979479219745</v>
+      </c>
+      <c r="P29">
+        <v>1.008078212271068</v>
+      </c>
+      <c r="Q29">
+        <v>1.008078212271068</v>
+      </c>
+      <c r="R29">
+        <v>1.003045524718345</v>
+      </c>
+      <c r="S29">
+        <v>1.003045524718345</v>
+      </c>
+      <c r="T29">
+        <v>1.001066551949159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9933289644370907</v>
+      </c>
+      <c r="D30">
+        <v>0.9932778783529508</v>
+      </c>
+      <c r="E30">
+        <v>1.014669995439299</v>
+      </c>
+      <c r="F30">
+        <v>0.9822803805514722</v>
+      </c>
+      <c r="G30">
+        <v>1.026703057326189</v>
+      </c>
+      <c r="H30">
+        <v>0.9932778783529508</v>
+      </c>
+      <c r="I30">
+        <v>0.9933499912262485</v>
+      </c>
+      <c r="J30">
+        <v>1.026703057326189</v>
+      </c>
+      <c r="K30">
+        <v>0.9932778783529508</v>
+      </c>
+      <c r="L30">
+        <v>0.9933499912262485</v>
+      </c>
+      <c r="M30">
+        <v>1.010026524276219</v>
+      </c>
+      <c r="N30">
+        <v>1.010026524276219</v>
+      </c>
+      <c r="O30">
+        <v>1.011574347997246</v>
+      </c>
+      <c r="P30">
+        <v>1.004443642301796</v>
+      </c>
+      <c r="Q30">
+        <v>1.004443642301796</v>
+      </c>
+      <c r="R30">
+        <v>1.001652201314585</v>
+      </c>
+      <c r="S30">
+        <v>1.001652201314585</v>
+      </c>
+      <c r="T30">
+        <v>1.000601711222209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9927255576354076</v>
+      </c>
+      <c r="D31">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="E31">
+        <v>1.015994395620708</v>
+      </c>
+      <c r="F31">
+        <v>0.9807057142226133</v>
+      </c>
+      <c r="G31">
+        <v>1.029126023041376</v>
+      </c>
+      <c r="H31">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="I31">
+        <v>0.9927569498690941</v>
+      </c>
+      <c r="J31">
+        <v>1.029126023041376</v>
+      </c>
+      <c r="K31">
+        <v>0.9926492751794049</v>
+      </c>
+      <c r="L31">
+        <v>0.9927569498690941</v>
+      </c>
+      <c r="M31">
+        <v>1.010941486455235</v>
+      </c>
+      <c r="N31">
+        <v>1.010941486455235</v>
+      </c>
+      <c r="O31">
+        <v>1.012625789510393</v>
+      </c>
+      <c r="P31">
+        <v>1.004844082696625</v>
+      </c>
+      <c r="Q31">
+        <v>1.004844082696625</v>
+      </c>
+      <c r="R31">
+        <v>1.00179538081732</v>
+      </c>
+      <c r="S31">
+        <v>1.00179538081732</v>
+      </c>
+      <c r="T31">
+        <v>1.000659652594767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9828786298630137</v>
+      </c>
+      <c r="D32">
+        <v>0.9830576942465755</v>
+      </c>
+      <c r="E32">
+        <v>1.037689050410959</v>
+      </c>
+      <c r="F32">
+        <v>0.9540983468493153</v>
+      </c>
+      <c r="G32">
+        <v>1.068419192876712</v>
+      </c>
+      <c r="H32">
+        <v>0.9830576942465755</v>
+      </c>
+      <c r="I32">
+        <v>0.9828049369863013</v>
+      </c>
+      <c r="J32">
+        <v>1.068419192876712</v>
+      </c>
+      <c r="K32">
+        <v>0.9830576942465755</v>
+      </c>
+      <c r="L32">
+        <v>0.9828049369863013</v>
+      </c>
+      <c r="M32">
+        <v>1.025612064931507</v>
+      </c>
+      <c r="N32">
+        <v>1.025612064931507</v>
+      </c>
+      <c r="O32">
+        <v>1.029637726757991</v>
+      </c>
+      <c r="P32">
+        <v>1.011427274703196</v>
+      </c>
+      <c r="Q32">
+        <v>1.011427274703196</v>
+      </c>
+      <c r="R32">
+        <v>1.004334879589041</v>
+      </c>
+      <c r="S32">
+        <v>1.004334879589041</v>
+      </c>
+      <c r="T32">
+        <v>1.001491308538813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="D33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="E33">
+        <v>0.9929029810526316</v>
+      </c>
+      <c r="F33">
+        <v>1.008908904210526</v>
+      </c>
+      <c r="G33">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="H33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="I33">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="J33">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="K33">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L33">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="M33">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="N33">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="O33">
+        <v>0.994488097368421</v>
+      </c>
+      <c r="P33">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="Q33">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="R33">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="S33">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="T33">
+        <v>0.9997575213157895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="D34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="E34">
+        <v>0.9929029810526316</v>
+      </c>
+      <c r="F34">
+        <v>1.008908904210526</v>
+      </c>
+      <c r="G34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="H34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="I34">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="J34">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="K34">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L34">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="M34">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="N34">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="O34">
+        <v>0.994488097368421</v>
+      </c>
+      <c r="P34">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="Q34">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="R34">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="S34">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="T34">
+        <v>0.9997575213157895</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9733114996076271</v>
+      </c>
+      <c r="D35">
+        <v>0.9730141156265317</v>
+      </c>
+      <c r="E35">
+        <v>1.058678152046628</v>
+      </c>
+      <c r="F35">
+        <v>0.9292369660885342</v>
+      </c>
+      <c r="G35">
+        <v>1.106864135267555</v>
+      </c>
+      <c r="H35">
+        <v>0.9730141156265317</v>
+      </c>
+      <c r="I35">
+        <v>0.9734338791823877</v>
+      </c>
+      <c r="J35">
+        <v>1.106864135267555</v>
+      </c>
+      <c r="K35">
+        <v>0.9730141156265317</v>
+      </c>
+      <c r="L35">
+        <v>0.9734338791823877</v>
+      </c>
+      <c r="M35">
+        <v>1.040149007224972</v>
+      </c>
+      <c r="N35">
+        <v>1.040149007224972</v>
+      </c>
+      <c r="O35">
+        <v>1.04632538883219</v>
+      </c>
+      <c r="P35">
+        <v>1.017770710025492</v>
+      </c>
+      <c r="Q35">
+        <v>1.017770710025492</v>
+      </c>
+      <c r="R35">
+        <v>1.006581561425752</v>
+      </c>
+      <c r="S35">
+        <v>1.006581561425752</v>
+      </c>
+      <c r="T35">
+        <v>1.002423124636544</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999968195797659</v>
+      </c>
+      <c r="D36">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="E36">
+        <v>1.000006923348987</v>
+      </c>
+      <c r="F36">
+        <v>0.9999923350395155</v>
+      </c>
+      <c r="G36">
+        <v>1.000012944401246</v>
+      </c>
+      <c r="H36">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="I36">
+        <v>0.9999970623233685</v>
+      </c>
+      <c r="J36">
+        <v>1.000012944401246</v>
+      </c>
+      <c r="K36">
+        <v>0.9999962252482356</v>
+      </c>
+      <c r="L36">
+        <v>0.9999970623233685</v>
+      </c>
+      <c r="M36">
+        <v>1.000005003362307</v>
+      </c>
+      <c r="N36">
+        <v>1.000005003362307</v>
+      </c>
+      <c r="O36">
+        <v>1.000005643357867</v>
+      </c>
+      <c r="P36">
+        <v>1.000002077324283</v>
+      </c>
+      <c r="Q36">
+        <v>1.000002077324283</v>
+      </c>
+      <c r="R36">
+        <v>1.000000614305271</v>
+      </c>
+      <c r="S36">
+        <v>1.000000614305271</v>
+      </c>
+      <c r="T36">
+        <v>1.000000384990186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999335485630793</v>
+      </c>
+      <c r="D37">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="E37">
+        <v>1.000146175627824</v>
+      </c>
+      <c r="F37">
+        <v>0.9998229867668249</v>
+      </c>
+      <c r="G37">
+        <v>1.000265857269597</v>
+      </c>
+      <c r="H37">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="I37">
+        <v>0.9999336028302104</v>
+      </c>
+      <c r="J37">
+        <v>1.000265857269597</v>
+      </c>
+      <c r="K37">
+        <v>0.9999334129682838</v>
+      </c>
+      <c r="L37">
+        <v>0.9999336028302104</v>
+      </c>
+      <c r="M37">
+        <v>1.000099730049904</v>
+      </c>
+      <c r="N37">
+        <v>1.000099730049904</v>
+      </c>
+      <c r="O37">
+        <v>1.000115211909211</v>
+      </c>
+      <c r="P37">
+        <v>1.000044291022697</v>
+      </c>
+      <c r="Q37">
+        <v>1.000044291022697</v>
+      </c>
+      <c r="R37">
+        <v>1.000016571509094</v>
+      </c>
+      <c r="S37">
+        <v>1.000016571509094</v>
+      </c>
+      <c r="T37">
+        <v>1.00000593067097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9997661777571404</v>
+      </c>
+      <c r="D38">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="E38">
+        <v>1.000514573987834</v>
+      </c>
+      <c r="F38">
+        <v>0.9993746270831888</v>
+      </c>
+      <c r="G38">
+        <v>1.000934783784859</v>
+      </c>
+      <c r="H38">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="I38">
+        <v>0.9997656198022739</v>
+      </c>
+      <c r="J38">
+        <v>1.000934783784859</v>
+      </c>
+      <c r="K38">
+        <v>0.9997675346296433</v>
+      </c>
+      <c r="L38">
+        <v>0.9997656198022739</v>
+      </c>
+      <c r="M38">
+        <v>1.000350201793567</v>
+      </c>
+      <c r="N38">
+        <v>1.000350201793567</v>
+      </c>
+      <c r="O38">
+        <v>1.000404992524989</v>
+      </c>
+      <c r="P38">
+        <v>1.000155979405592</v>
+      </c>
+      <c r="Q38">
+        <v>1.000155979405592</v>
+      </c>
+      <c r="R38">
+        <v>1.000058868211605</v>
+      </c>
+      <c r="S38">
+        <v>1.000058868211605</v>
+      </c>
+      <c r="T38">
+        <v>1.000020552840823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9994523697589928</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9994574708944242</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001205424225527</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9985326761343395</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002188644912575</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9994574708944242</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9994502649339647</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.002188644912575</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9994574708944242</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9994502649339647</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.00081945492327</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.00081945492327</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000948111357356</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000365460246988</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000365460246988</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000138462908847</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000138462908847</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000047808476637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.001650212101951</v>
+      </c>
+      <c r="D40">
+        <v>1.00172008016558</v>
+      </c>
+      <c r="E40">
+        <v>0.9963781240900266</v>
+      </c>
+      <c r="F40">
+        <v>1.004305116654108</v>
+      </c>
+      <c r="G40">
+        <v>0.993373279051</v>
+      </c>
+      <c r="H40">
+        <v>1.00172008016558</v>
+      </c>
+      <c r="I40">
+        <v>1.001621458878363</v>
+      </c>
+      <c r="J40">
+        <v>0.993373279051</v>
+      </c>
+      <c r="K40">
+        <v>1.00172008016558</v>
+      </c>
+      <c r="L40">
+        <v>1.001621458878363</v>
+      </c>
+      <c r="M40">
+        <v>0.9974973689646818</v>
+      </c>
+      <c r="N40">
+        <v>0.9974973689646818</v>
+      </c>
+      <c r="O40">
+        <v>0.9971242873397967</v>
+      </c>
+      <c r="P40">
+        <v>0.9989049393649813</v>
+      </c>
+      <c r="Q40">
+        <v>0.9989049393649813</v>
+      </c>
+      <c r="R40">
+        <v>0.9996087245651309</v>
+      </c>
+      <c r="S40">
+        <v>0.9996087245651309</v>
+      </c>
+      <c r="T40">
+        <v>0.9998413784901716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996082772592804</v>
+      </c>
+      <c r="D41">
+        <v>0.9996542172772048</v>
+      </c>
+      <c r="E41">
+        <v>1.000867435238286</v>
+      </c>
+      <c r="F41">
+        <v>0.9988926508175807</v>
+      </c>
+      <c r="G41">
+        <v>1.001549873740884</v>
+      </c>
+      <c r="H41">
+        <v>0.9996542172772048</v>
+      </c>
+      <c r="I41">
+        <v>0.9995893725274807</v>
+      </c>
+      <c r="J41">
+        <v>1.001549873740884</v>
+      </c>
+      <c r="K41">
+        <v>0.9996542172772048</v>
+      </c>
+      <c r="L41">
+        <v>0.9995893725274807</v>
+      </c>
+      <c r="M41">
+        <v>1.000569623134182</v>
+      </c>
+      <c r="N41">
+        <v>1.000569623134182</v>
+      </c>
+      <c r="O41">
+        <v>1.00066889383555</v>
+      </c>
+      <c r="P41">
+        <v>1.000264487848523</v>
+      </c>
+      <c r="Q41">
+        <v>1.000264487848523</v>
+      </c>
+      <c r="R41">
+        <v>1.000111920205694</v>
+      </c>
+      <c r="S41">
+        <v>1.000111920205694</v>
+      </c>
+      <c r="T41">
+        <v>1.000026971143453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9904899779092251</v>
+      </c>
+      <c r="D42">
+        <v>0.9905659454139301</v>
+      </c>
+      <c r="E42">
+        <v>1.020931389075799</v>
+      </c>
+      <c r="F42">
+        <v>0.9745361604027296</v>
+      </c>
+      <c r="G42">
+        <v>1.038011956974969</v>
+      </c>
+      <c r="H42">
+        <v>0.9905659454139301</v>
+      </c>
+      <c r="I42">
+        <v>0.990458716807457</v>
+      </c>
+      <c r="J42">
+        <v>1.038011956974969</v>
+      </c>
+      <c r="K42">
+        <v>0.9905659454139301</v>
+      </c>
+      <c r="L42">
+        <v>0.990458716807457</v>
+      </c>
+      <c r="M42">
+        <v>1.014235336891213</v>
+      </c>
+      <c r="N42">
+        <v>1.014235336891213</v>
+      </c>
+      <c r="O42">
+        <v>1.016467354286075</v>
+      </c>
+      <c r="P42">
+        <v>1.006345539732119</v>
+      </c>
+      <c r="Q42">
+        <v>1.006345539732118</v>
+      </c>
+      <c r="R42">
+        <v>1.002400641152571</v>
+      </c>
+      <c r="S42">
+        <v>1.002400641152571</v>
+      </c>
+      <c r="T42">
+        <v>1.000832357764018</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9992473852668919</v>
+        <v>0.9998840253242379</v>
       </c>
       <c r="D3">
-        <v>1.003034599795769</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="E3">
-        <v>0.9992379969309925</v>
+        <v>1.000255043722395</v>
       </c>
       <c r="F3">
-        <v>0.9992473852668919</v>
+        <v>0.9996918527672719</v>
       </c>
       <c r="G3">
-        <v>0.9979662117509901</v>
+        <v>1.000464203840418</v>
       </c>
       <c r="H3">
-        <v>1.001671200556589</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="I3">
-        <v>0.9992407352824531</v>
+        <v>0.9998843591571224</v>
       </c>
       <c r="J3">
-        <v>1.003034599795769</v>
+        <v>1.000464203840418</v>
       </c>
       <c r="K3">
-        <v>0.9992473852668919</v>
+        <v>0.9998832094753982</v>
       </c>
       <c r="L3">
-        <v>0.9992379969309925</v>
+        <v>0.9998843591571224</v>
       </c>
       <c r="M3">
-        <v>1.001136298363381</v>
+        <v>1.00017428149877</v>
       </c>
       <c r="N3">
-        <v>1.001136298363381</v>
+        <v>1.00017428149877</v>
       </c>
       <c r="O3">
-        <v>1.00131459909445</v>
+        <v>1.000201202239978</v>
       </c>
       <c r="P3">
-        <v>1.000506660664551</v>
+        <v>1.00007725749098</v>
       </c>
       <c r="Q3">
-        <v>1.000506660664551</v>
+        <v>1.00007725749098</v>
       </c>
       <c r="R3">
-        <v>1.000191841815136</v>
+        <v>1.000028745487084</v>
       </c>
       <c r="S3">
-        <v>1.000191841815136</v>
+        <v>1.000028745487084</v>
       </c>
       <c r="T3">
-        <v>1.000066354930614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000010449047807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9985470252546133</v>
+        <v>1.001650212101951</v>
       </c>
       <c r="D4">
-        <v>1.005858292635163</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="E4">
-        <v>0.9985289828231712</v>
+        <v>0.9963781240900266</v>
       </c>
       <c r="F4">
-        <v>0.9985470252546133</v>
+        <v>1.004305116654108</v>
       </c>
       <c r="G4">
-        <v>0.9960738577929247</v>
+        <v>0.993373279051</v>
       </c>
       <c r="H4">
-        <v>1.003226235618438</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="I4">
-        <v>0.9985342458183785</v>
+        <v>1.001621458878363</v>
       </c>
       <c r="J4">
-        <v>1.005858292635163</v>
+        <v>0.993373279051</v>
       </c>
       <c r="K4">
-        <v>0.9985470252546133</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="L4">
-        <v>0.9985289828231712</v>
+        <v>1.001621458878363</v>
       </c>
       <c r="M4">
-        <v>1.002193637729167</v>
+        <v>0.9974973689646818</v>
       </c>
       <c r="N4">
-        <v>1.002193637729167</v>
+        <v>0.9974973689646818</v>
       </c>
       <c r="O4">
-        <v>1.002537837025591</v>
+        <v>0.9971242873397967</v>
       </c>
       <c r="P4">
-        <v>1.000978100237649</v>
+        <v>0.9989049393649813</v>
       </c>
       <c r="Q4">
-        <v>1.000978100237649</v>
+        <v>0.9989049393649813</v>
       </c>
       <c r="R4">
-        <v>1.00037033149189</v>
+        <v>0.9996087245651309</v>
       </c>
       <c r="S4">
-        <v>1.00037033149189</v>
+        <v>0.9996087245651309</v>
       </c>
       <c r="T4">
-        <v>1.000128106657115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9998413784901716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9972143867610729</v>
+        <v>0.9921987482925076</v>
       </c>
       <c r="D5">
-        <v>1.011227408084276</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="E5">
-        <v>0.9971813486215854</v>
+        <v>1.017155022564842</v>
       </c>
       <c r="F5">
-        <v>0.9972143867610729</v>
+        <v>0.9792826062247858</v>
       </c>
       <c r="G5">
-        <v>0.9924773085102437</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="H5">
-        <v>1.006182727408908</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="I5">
-        <v>0.9971909874993824</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="J5">
-        <v>1.011227408084276</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="K5">
-        <v>0.9972143867610729</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="L5">
-        <v>0.9971813486215854</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="M5">
-        <v>1.004204378352931</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="N5">
-        <v>1.004204378352931</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="O5">
-        <v>1.004863828038257</v>
+        <v>1.013535988230067</v>
       </c>
       <c r="P5">
-        <v>1.001874381155645</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="Q5">
-        <v>1.001874381155645</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="R5">
-        <v>1.000709382557002</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="S5">
-        <v>1.000709382557002</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="T5">
-        <v>1.000245694480911</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000704193872479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9959137632541213</v>
+        <v>0.9733114996076271</v>
       </c>
       <c r="D6">
-        <v>1.016467412192414</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="E6">
-        <v>0.9958661364656642</v>
+        <v>1.058678152046628</v>
       </c>
       <c r="F6">
-        <v>0.9959137632541213</v>
+        <v>0.9292369660885342</v>
       </c>
       <c r="G6">
-        <v>0.9889672965555452</v>
+        <v>1.106864135267555</v>
       </c>
       <c r="H6">
-        <v>1.009068104617452</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="I6">
-        <v>0.9958800180012339</v>
+        <v>0.9734338791823877</v>
       </c>
       <c r="J6">
-        <v>1.016467412192414</v>
+        <v>1.106864135267555</v>
       </c>
       <c r="K6">
-        <v>0.9959137632541213</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="L6">
-        <v>0.9958661364656642</v>
+        <v>0.9734338791823877</v>
       </c>
       <c r="M6">
-        <v>1.006166774329039</v>
+        <v>1.040149007224972</v>
       </c>
       <c r="N6">
-        <v>1.006166774329039</v>
+        <v>1.040149007224972</v>
       </c>
       <c r="O6">
-        <v>1.007133884425177</v>
+        <v>1.04632538883219</v>
       </c>
       <c r="P6">
-        <v>1.002749103970733</v>
+        <v>1.017770710025492</v>
       </c>
       <c r="Q6">
-        <v>1.002749103970733</v>
+        <v>1.017770710025492</v>
       </c>
       <c r="R6">
-        <v>1.00104026879158</v>
+        <v>1.006581561425752</v>
       </c>
       <c r="S6">
-        <v>1.00104026879158</v>
+        <v>1.006581561425752</v>
       </c>
       <c r="T6">
-        <v>1.000360455181072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.002423124636544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999497453555698</v>
+        <v>0.9992156592969531</v>
       </c>
       <c r="D7">
-        <v>1.000199455189465</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="E7">
-        <v>0.9999503525527518</v>
+        <v>1.0017263843225</v>
       </c>
       <c r="F7">
-        <v>0.9999497453555698</v>
+        <v>0.9978991677150296</v>
       </c>
       <c r="G7">
-        <v>0.9998677319092391</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="H7">
-        <v>1.000109557627781</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="I7">
-        <v>0.9999501768484103</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="J7">
-        <v>1.000199455189465</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="K7">
-        <v>0.9999497453555698</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="L7">
-        <v>0.9999503525527518</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="M7">
-        <v>1.000074903871108</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="N7">
-        <v>1.000074903871108</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="O7">
-        <v>1.000086455123333</v>
+        <v>1.001358036899593</v>
       </c>
       <c r="P7">
-        <v>1.000033184365929</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="Q7">
-        <v>1.000033184365929</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="R7">
-        <v>1.000012324613339</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="S7">
-        <v>1.000012324613339</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="T7">
-        <v>1.000004503247203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000068562309893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998832094753982</v>
+        <v>0.9999335485630793</v>
       </c>
       <c r="D8">
-        <v>1.000464203840418</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="E8">
-        <v>0.9998843591571224</v>
+        <v>1.000146175627824</v>
       </c>
       <c r="F8">
-        <v>0.9998832094753982</v>
+        <v>0.9998229867668249</v>
       </c>
       <c r="G8">
-        <v>0.999691852767272</v>
+        <v>1.000265857269597</v>
       </c>
       <c r="H8">
-        <v>1.000255043722395</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="I8">
-        <v>0.9998840253242378</v>
+        <v>0.9999336028302104</v>
       </c>
       <c r="J8">
-        <v>1.000464203840418</v>
+        <v>1.000265857269597</v>
       </c>
       <c r="K8">
-        <v>0.9998832094753982</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="L8">
-        <v>0.9998843591571224</v>
+        <v>0.9999336028302104</v>
       </c>
       <c r="M8">
-        <v>1.00017428149877</v>
+        <v>1.000099730049904</v>
       </c>
       <c r="N8">
-        <v>1.00017428149877</v>
+        <v>1.000099730049904</v>
       </c>
       <c r="O8">
-        <v>1.000201202239978</v>
+        <v>1.000115211909211</v>
       </c>
       <c r="P8">
-        <v>1.00007725749098</v>
+        <v>1.000044291022697</v>
       </c>
       <c r="Q8">
-        <v>1.00007725749098</v>
+        <v>1.000044291022697</v>
       </c>
       <c r="R8">
-        <v>1.000028745487084</v>
+        <v>1.000016571509094</v>
       </c>
       <c r="S8">
-        <v>1.000028745487084</v>
+        <v>1.000016571509094</v>
       </c>
       <c r="T8">
-        <v>1.000010449047807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.00000593067097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9998450548989791</v>
+        <v>0.9985342458183785</v>
       </c>
       <c r="D9">
-        <v>1.000617936115851</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="E9">
-        <v>0.9998457715697439</v>
+        <v>1.003226235618438</v>
       </c>
       <c r="F9">
-        <v>0.9998450548989791</v>
+        <v>0.9960738577929245</v>
       </c>
       <c r="G9">
-        <v>0.9995888696191022</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="H9">
-        <v>1.000339696980612</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="I9">
-        <v>0.9998455637341807</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="J9">
-        <v>1.000617936115851</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="K9">
-        <v>0.9998450548989791</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="L9">
-        <v>0.9998457715697439</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="M9">
-        <v>1.000231853842797</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="N9">
-        <v>1.000231853842797</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="O9">
-        <v>1.000267801555402</v>
+        <v>1.002537837025591</v>
       </c>
       <c r="P9">
-        <v>1.000102920861525</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="Q9">
-        <v>1.000102920861525</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="R9">
-        <v>1.000038454370888</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="S9">
-        <v>1.000038454370888</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="T9">
-        <v>1.000013815486411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000128106657115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9996573063996075</v>
+        <v>0.9729135469831452</v>
       </c>
       <c r="D10">
-        <v>1.001363873660887</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="E10">
-        <v>0.9996599897120948</v>
+        <v>1.059552507086018</v>
       </c>
       <c r="F10">
-        <v>0.9996573063996075</v>
+        <v>0.9281884453106968</v>
       </c>
       <c r="G10">
-        <v>0.9990938271259884</v>
+        <v>1.108459386259748</v>
       </c>
       <c r="H10">
-        <v>1.000749509944354</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="I10">
-        <v>0.9996592074147341</v>
+        <v>0.9730397482906125</v>
       </c>
       <c r="J10">
-        <v>1.001363873660887</v>
+        <v>1.108459386259748</v>
       </c>
       <c r="K10">
-        <v>0.9996573063996075</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="L10">
-        <v>0.9996599897120948</v>
+        <v>0.9730397482906125</v>
       </c>
       <c r="M10">
-        <v>1.000511931686491</v>
+        <v>1.04074956727518</v>
       </c>
       <c r="N10">
-        <v>1.000511931686491</v>
+        <v>1.04074956727518</v>
       </c>
       <c r="O10">
-        <v>1.000591124439112</v>
+        <v>1.047017213878793</v>
       </c>
       <c r="P10">
-        <v>1.000227056590863</v>
+        <v>1.018035336990744</v>
       </c>
       <c r="Q10">
-        <v>1.000227056590863</v>
+        <v>1.018035336990744</v>
       </c>
       <c r="R10">
-        <v>1.000084619043049</v>
+        <v>1.006678221848525</v>
       </c>
       <c r="S10">
-        <v>1.000084619043049</v>
+        <v>1.006678221848525</v>
       </c>
       <c r="T10">
-        <v>1.000030619042944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.002460085058682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.999456314246812</v>
+        <v>0.9993501103776781</v>
       </c>
       <c r="D11">
-        <v>1.002170150584252</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="E11">
-        <v>0.9994581013797135</v>
+        <v>1.001446610323213</v>
       </c>
       <c r="F11">
-        <v>0.999456314246812</v>
+        <v>0.9980796734242212</v>
       </c>
       <c r="G11">
-        <v>0.9985552801823568</v>
+        <v>1.002548782921856</v>
       </c>
       <c r="H11">
-        <v>1.001193169174413</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="I11">
-        <v>0.9994575783789246</v>
+        <v>0.9992936962696783</v>
       </c>
       <c r="J11">
-        <v>1.002170150584252</v>
+        <v>1.002548782921856</v>
       </c>
       <c r="K11">
-        <v>0.999456314246812</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="L11">
-        <v>0.9994581013797135</v>
+        <v>0.9992936962696783</v>
       </c>
       <c r="M11">
-        <v>1.000814125981983</v>
+        <v>1.000921239595767</v>
       </c>
       <c r="N11">
-        <v>1.000814125981983</v>
+        <v>1.000921239595767</v>
       </c>
       <c r="O11">
-        <v>1.000940473712793</v>
+        <v>1.001096363171582</v>
       </c>
       <c r="P11">
-        <v>1.000361522070259</v>
+        <v>1.000443227404947</v>
       </c>
       <c r="Q11">
-        <v>1.000361522070259</v>
+        <v>1.000443227404947</v>
       </c>
       <c r="R11">
-        <v>1.000135220114397</v>
+        <v>1.000204221309537</v>
       </c>
       <c r="S11">
-        <v>1.000135220114397</v>
+        <v>1.000204221309537</v>
       </c>
       <c r="T11">
-        <v>1.000048432324412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000034346056659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.004083142202896</v>
+        <v>0.9919326941368455</v>
       </c>
       <c r="D12">
-        <v>0.9851348086546715</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="E12">
-        <v>1.003512512846241</v>
+        <v>1.017735873694738</v>
       </c>
       <c r="F12">
-        <v>1.004083142202896</v>
+        <v>0.9786227919789491</v>
       </c>
       <c r="G12">
-        <v>1.009257961053271</v>
+        <v>1.032305989905268</v>
       </c>
       <c r="H12">
-        <v>0.9919562085308015</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="I12">
-        <v>1.003678859927265</v>
+        <v>0.9919735386631581</v>
       </c>
       <c r="J12">
-        <v>0.9851348086546715</v>
+        <v>1.032305989905268</v>
       </c>
       <c r="K12">
-        <v>1.004083142202896</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="L12">
-        <v>1.003512512846241</v>
+        <v>0.9919735386631581</v>
       </c>
       <c r="M12">
-        <v>0.9943236607504564</v>
+        <v>1.012139764284213</v>
       </c>
       <c r="N12">
-        <v>0.9943236607504564</v>
+        <v>1.012139764284213</v>
       </c>
       <c r="O12">
-        <v>0.9935345100105715</v>
+        <v>1.014005134087721</v>
       </c>
       <c r="P12">
-        <v>0.997576821234603</v>
+        <v>1.005370988957895</v>
       </c>
       <c r="Q12">
-        <v>0.9975768212346031</v>
+        <v>1.005370988957895</v>
       </c>
       <c r="R12">
-        <v>0.9992034014766764</v>
+        <v>1.001986601294737</v>
       </c>
       <c r="S12">
-        <v>0.9992034014766764</v>
+        <v>1.001986601294737</v>
       </c>
       <c r="T12">
-        <v>0.9996039155358578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.00073405444737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000754173015497</v>
+        <v>1.005323588683976</v>
       </c>
       <c r="D13">
-        <v>0.9963659284845212</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="E13">
-        <v>1.000994259708301</v>
+        <v>0.9882893968771214</v>
       </c>
       <c r="F13">
-        <v>1.000754173015497</v>
+        <v>1.014181886422924</v>
       </c>
       <c r="G13">
-        <v>1.002697115514953</v>
+        <v>0.9787017569742833</v>
       </c>
       <c r="H13">
-        <v>0.9979456943120092</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="I13">
-        <v>1.000924269029135</v>
+        <v>1.005319264359897</v>
       </c>
       <c r="J13">
-        <v>0.9963659284845212</v>
+        <v>0.9787017569742833</v>
       </c>
       <c r="K13">
-        <v>1.000754173015497</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="L13">
-        <v>1.000994259708301</v>
+        <v>1.005319264359897</v>
       </c>
       <c r="M13">
-        <v>0.9986800940964109</v>
+        <v>0.9920105106670902</v>
       </c>
       <c r="N13">
-        <v>0.9986800940964109</v>
+        <v>0.9920105106670902</v>
       </c>
       <c r="O13">
-        <v>0.998435294168277</v>
+        <v>0.9907701394037672</v>
       </c>
       <c r="P13">
-        <v>0.9993714537361061</v>
+        <v>0.9964517048713256</v>
       </c>
       <c r="Q13">
-        <v>0.9993714537361061</v>
+        <v>0.9964517048713256</v>
       </c>
       <c r="R13">
-        <v>0.9997171335559538</v>
+        <v>0.9986723019734433</v>
       </c>
       <c r="S13">
-        <v>0.9997171335559538</v>
+        <v>0.9986723019734433</v>
       </c>
       <c r="T13">
-        <v>0.9999469066774026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9995249977663329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.008440267632869</v>
+        <v>0.9532016400000016</v>
       </c>
       <c r="D14">
-        <v>0.9656788526781157</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="E14">
-        <v>1.008658063000247</v>
+        <v>1.1028898</v>
       </c>
       <c r="F14">
-        <v>1.008440267632869</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G14">
-        <v>1.023129671862989</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="H14">
-        <v>0.9810729601344501</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="I14">
-        <v>1.008594582493255</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="J14">
-        <v>0.9656788526781157</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="K14">
-        <v>1.008440267632869</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="L14">
-        <v>1.008658063000247</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="M14">
-        <v>0.9871684578391815</v>
+        <v>1.070409360000001</v>
       </c>
       <c r="N14">
-        <v>0.9871684578391815</v>
+        <v>1.070409360000001</v>
       </c>
       <c r="O14">
-        <v>0.9851366252709376</v>
+        <v>1.081236173333334</v>
       </c>
       <c r="P14">
-        <v>0.994259061103744</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q14">
-        <v>0.994259061103744</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R14">
-        <v>0.9978043627360252</v>
+        <v>1.01153458</v>
       </c>
       <c r="S14">
-        <v>0.9978043627360252</v>
+        <v>1.01153458</v>
       </c>
       <c r="T14">
-        <v>0.9992623996336542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.004252436666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.002295542145029</v>
+        <v>1.0117535</v>
       </c>
       <c r="D15">
-        <v>0.991047796534645</v>
+        <v>1.012634</v>
       </c>
       <c r="E15">
-        <v>1.002206115577125</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F15">
-        <v>1.002295542145029</v>
+        <v>1.0301398</v>
       </c>
       <c r="G15">
-        <v>1.005865936989239</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H15">
-        <v>0.9950969875170368</v>
+        <v>1.012634</v>
       </c>
       <c r="I15">
-        <v>1.002232186217677</v>
+        <v>1.0113912</v>
       </c>
       <c r="J15">
-        <v>0.991047796534645</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K15">
-        <v>1.002295542145029</v>
+        <v>1.012634</v>
       </c>
       <c r="L15">
-        <v>1.002206115577125</v>
+        <v>1.0113912</v>
       </c>
       <c r="M15">
-        <v>0.9966269560558849</v>
+        <v>0.9820255</v>
       </c>
       <c r="N15">
-        <v>0.9966269560558849</v>
+        <v>0.9820255</v>
       </c>
       <c r="O15">
-        <v>0.9961169665429356</v>
+        <v>0.97943384</v>
       </c>
       <c r="P15">
-        <v>0.9985164847522663</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q15">
-        <v>0.9985164847522664</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R15">
-        <v>0.9994612491004571</v>
+        <v>0.99732975</v>
       </c>
       <c r="S15">
-        <v>0.9994612491004571</v>
+        <v>0.99732975</v>
       </c>
       <c r="T15">
-        <v>0.9997907608301254</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9988048033333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999962252482356</v>
+        <v>1.0117535</v>
       </c>
       <c r="D16">
-        <v>1.000012944401246</v>
+        <v>1.012634</v>
       </c>
       <c r="E16">
-        <v>0.9999970623233685</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F16">
-        <v>0.9999962252482356</v>
+        <v>1.0301398</v>
       </c>
       <c r="G16">
-        <v>0.9999923350395155</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H16">
-        <v>1.000006923348987</v>
+        <v>1.012634</v>
       </c>
       <c r="I16">
-        <v>0.9999968195797659</v>
+        <v>1.0113912</v>
       </c>
       <c r="J16">
-        <v>1.000012944401246</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K16">
-        <v>0.9999962252482356</v>
+        <v>1.012634</v>
       </c>
       <c r="L16">
-        <v>0.9999970623233685</v>
+        <v>1.0113912</v>
       </c>
       <c r="M16">
-        <v>1.000005003362307</v>
+        <v>0.9820255</v>
       </c>
       <c r="N16">
-        <v>1.000005003362307</v>
+        <v>0.9820255</v>
       </c>
       <c r="O16">
-        <v>1.000005643357867</v>
+        <v>0.97943384</v>
       </c>
       <c r="P16">
-        <v>1.000002077324283</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q16">
-        <v>1.000002077324283</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R16">
-        <v>1.000000614305271</v>
+        <v>0.99732975</v>
       </c>
       <c r="S16">
-        <v>1.000000614305271</v>
+        <v>0.99732975</v>
       </c>
       <c r="T16">
-        <v>1.000000384990186</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999334129682838</v>
+        <v>1.0298917</v>
       </c>
       <c r="D17">
-        <v>1.000265857269597</v>
+        <v>1.0290165</v>
       </c>
       <c r="E17">
-        <v>0.9999336028302104</v>
+        <v>0.93413061</v>
       </c>
       <c r="F17">
-        <v>0.9999334129682838</v>
+        <v>1.080907</v>
       </c>
       <c r="G17">
-        <v>0.9998229867668249</v>
+        <v>0.88075728</v>
       </c>
       <c r="H17">
-        <v>1.000146175627824</v>
+        <v>1.0290165</v>
       </c>
       <c r="I17">
-        <v>0.9999335485630789</v>
+        <v>1.0302519</v>
       </c>
       <c r="J17">
-        <v>1.000265857269597</v>
+        <v>0.88075728</v>
       </c>
       <c r="K17">
-        <v>0.9999334129682838</v>
+        <v>1.0290165</v>
       </c>
       <c r="L17">
-        <v>0.9999336028302104</v>
+        <v>1.0302519</v>
       </c>
       <c r="M17">
-        <v>1.000099730049904</v>
+        <v>0.9555045900000001</v>
       </c>
       <c r="N17">
-        <v>1.000099730049904</v>
+        <v>0.9555045900000001</v>
       </c>
       <c r="O17">
-        <v>1.000115211909211</v>
+        <v>0.9483799300000001</v>
       </c>
       <c r="P17">
-        <v>1.000044291022697</v>
+        <v>0.98000856</v>
       </c>
       <c r="Q17">
-        <v>1.000044291022697</v>
+        <v>0.98000856</v>
       </c>
       <c r="R17">
-        <v>1.000016571509094</v>
+        <v>0.992260545</v>
       </c>
       <c r="S17">
-        <v>1.000016571509094</v>
+        <v>0.992260545</v>
       </c>
       <c r="T17">
-        <v>1.00000593067097</v>
+        <v>0.9974924983333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9997675346296434</v>
+        <v>0.9828786298630137</v>
       </c>
       <c r="D18">
-        <v>1.000934783784859</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="E18">
-        <v>0.9997656198022739</v>
+        <v>1.037689050410959</v>
       </c>
       <c r="F18">
-        <v>0.9997675346296434</v>
+        <v>0.9540983468493153</v>
       </c>
       <c r="G18">
-        <v>0.9993746270831888</v>
+        <v>1.068419192876712</v>
       </c>
       <c r="H18">
-        <v>1.000514573987834</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="I18">
-        <v>0.9997661777571404</v>
+        <v>0.9828049369863013</v>
       </c>
       <c r="J18">
-        <v>1.000934783784859</v>
+        <v>1.068419192876712</v>
       </c>
       <c r="K18">
-        <v>0.9997675346296434</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="L18">
-        <v>0.9997656198022739</v>
+        <v>0.9828049369863013</v>
       </c>
       <c r="M18">
-        <v>1.000350201793567</v>
+        <v>1.025612064931507</v>
       </c>
       <c r="N18">
-        <v>1.000350201793567</v>
+        <v>1.025612064931507</v>
       </c>
       <c r="O18">
-        <v>1.000404992524989</v>
+        <v>1.029637726757991</v>
       </c>
       <c r="P18">
-        <v>1.000155979405592</v>
+        <v>1.011427274703196</v>
       </c>
       <c r="Q18">
-        <v>1.000155979405592</v>
+        <v>1.011427274703196</v>
       </c>
       <c r="R18">
-        <v>1.000058868211605</v>
+        <v>1.004334879589041</v>
       </c>
       <c r="S18">
-        <v>1.000058868211605</v>
+        <v>1.004334879589041</v>
       </c>
       <c r="T18">
-        <v>1.000020552840823</v>
+        <v>1.001491308538813</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994574708944242</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="D19">
-        <v>1.002188644912575</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="E19">
-        <v>0.9994502649339647</v>
+        <v>0.9929029810526316</v>
       </c>
       <c r="F19">
-        <v>0.9994574708944242</v>
+        <v>1.008908904210526</v>
       </c>
       <c r="G19">
-        <v>0.9985326761343395</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="H19">
-        <v>1.001205424225527</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="I19">
-        <v>0.9994523697589928</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="J19">
-        <v>1.002188644912575</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="K19">
-        <v>0.9994574708944242</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L19">
-        <v>0.9994502649339647</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="M19">
-        <v>1.00081945492327</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="N19">
-        <v>1.00081945492327</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="O19">
-        <v>1.000948111357356</v>
+        <v>0.994488097368421</v>
       </c>
       <c r="P19">
-        <v>1.000365460246988</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="Q19">
-        <v>1.000365460246988</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="R19">
-        <v>1.000138462908847</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="S19">
-        <v>1.000138462908847</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="T19">
-        <v>1.000047808476637</v>
+        <v>0.9997575213157895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.003211843684211</v>
+      </c>
+      <c r="D20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="E20">
+        <v>0.9929029810526316</v>
+      </c>
+      <c r="F20">
+        <v>1.008908904210526</v>
+      </c>
+      <c r="G20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="H20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="I20">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="J20">
+        <v>0.987245854736842</v>
+      </c>
+      <c r="K20">
+        <v>1.002960087894737</v>
+      </c>
+      <c r="L20">
+        <v>1.00331545631579</v>
+      </c>
+      <c r="M20">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="N20">
+        <v>0.9952806555263158</v>
+      </c>
+      <c r="O20">
+        <v>0.994488097368421</v>
+      </c>
+      <c r="P20">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="Q20">
+        <v>0.9978404663157896</v>
+      </c>
+      <c r="R20">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="S20">
+        <v>0.9991203717105264</v>
+      </c>
+      <c r="T20">
+        <v>0.9997575213157895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.008594582493255</v>
+      </c>
+      <c r="D21">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="E21">
+        <v>0.9810729601344501</v>
+      </c>
+      <c r="F21">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G21">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="H21">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="I21">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="J21">
+        <v>0.9656788526781157</v>
+      </c>
+      <c r="K21">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="L21">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="M21">
+        <v>0.9871684578391815</v>
+      </c>
+      <c r="N21">
+        <v>0.9871684578391815</v>
+      </c>
+      <c r="O21">
+        <v>0.9851366252709376</v>
+      </c>
+      <c r="P21">
+        <v>0.994259061103744</v>
+      </c>
+      <c r="Q21">
+        <v>0.994259061103744</v>
+      </c>
+      <c r="R21">
+        <v>0.9978043627360252</v>
+      </c>
+      <c r="S21">
+        <v>0.9978043627360252</v>
+      </c>
+      <c r="T21">
+        <v>0.9992623996336542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002232186217677</v>
+      </c>
+      <c r="D22">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="E22">
+        <v>0.9950969875170368</v>
+      </c>
+      <c r="F22">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G22">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="H22">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="I22">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="J22">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="K22">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="L22">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="M22">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="N22">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="O22">
+        <v>0.9961169665429356</v>
+      </c>
+      <c r="P22">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="Q22">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="R22">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="S22">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="T22">
+        <v>0.9997907608301252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.003678859927265</v>
+      </c>
+      <c r="D23">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="E23">
+        <v>0.9919562085308015</v>
+      </c>
+      <c r="F23">
+        <v>1.009257961053271</v>
+      </c>
+      <c r="G23">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="H23">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="I23">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="J23">
+        <v>0.9851348086546712</v>
+      </c>
+      <c r="K23">
+        <v>1.004083142202896</v>
+      </c>
+      <c r="L23">
+        <v>1.003512512846241</v>
+      </c>
+      <c r="M23">
+        <v>0.9943236607504563</v>
+      </c>
+      <c r="N23">
+        <v>0.9943236607504563</v>
+      </c>
+      <c r="O23">
+        <v>0.9935345100105714</v>
+      </c>
+      <c r="P23">
+        <v>0.9975768212346029</v>
+      </c>
+      <c r="Q23">
+        <v>0.9975768212346029</v>
+      </c>
+      <c r="R23">
+        <v>0.9992034014766762</v>
+      </c>
+      <c r="S23">
+        <v>0.9992034014766762</v>
+      </c>
+      <c r="T23">
+        <v>0.9996039155358577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000924269029135</v>
+      </c>
+      <c r="D24">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="E24">
+        <v>0.9979456943120095</v>
+      </c>
+      <c r="F24">
+        <v>1.002697115514953</v>
+      </c>
+      <c r="G24">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="H24">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="I24">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="J24">
+        <v>0.9963659284845212</v>
+      </c>
+      <c r="K24">
+        <v>1.000754173015497</v>
+      </c>
+      <c r="L24">
+        <v>1.0009942597083</v>
+      </c>
+      <c r="M24">
+        <v>0.9986800940964107</v>
+      </c>
+      <c r="N24">
+        <v>0.9986800940964107</v>
+      </c>
+      <c r="O24">
+        <v>0.998435294168277</v>
+      </c>
+      <c r="P24">
+        <v>0.9993714537361061</v>
+      </c>
+      <c r="Q24">
+        <v>0.9993714537361061</v>
+      </c>
+      <c r="R24">
+        <v>0.9997171335559538</v>
+      </c>
+      <c r="S24">
+        <v>0.9997171335559538</v>
+      </c>
+      <c r="T24">
+        <v>0.9999469066774026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.008594582493255</v>
+      </c>
+      <c r="D25">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="E25">
+        <v>0.98107296013445</v>
+      </c>
+      <c r="F25">
+        <v>1.023129671862989</v>
+      </c>
+      <c r="G25">
+        <v>0.965678852678116</v>
+      </c>
+      <c r="H25">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="I25">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="J25">
+        <v>0.965678852678116</v>
+      </c>
+      <c r="K25">
+        <v>1.008440267632869</v>
+      </c>
+      <c r="L25">
+        <v>1.008658063000247</v>
+      </c>
+      <c r="M25">
+        <v>0.9871684578391817</v>
+      </c>
+      <c r="N25">
+        <v>0.9871684578391817</v>
+      </c>
+      <c r="O25">
+        <v>0.9851366252709378</v>
+      </c>
+      <c r="P25">
+        <v>0.9942590611037442</v>
+      </c>
+      <c r="Q25">
+        <v>0.9942590611037442</v>
+      </c>
+      <c r="R25">
+        <v>0.9978043627360254</v>
+      </c>
+      <c r="S25">
+        <v>0.9978043627360254</v>
+      </c>
+      <c r="T25">
+        <v>0.9992623996336544</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.002232186217677</v>
+      </c>
+      <c r="D26">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="E26">
+        <v>0.9950969875170368</v>
+      </c>
+      <c r="F26">
+        <v>1.005865936989239</v>
+      </c>
+      <c r="G26">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="H26">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="I26">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="J26">
+        <v>0.991047796534645</v>
+      </c>
+      <c r="K26">
+        <v>1.002295542145029</v>
+      </c>
+      <c r="L26">
+        <v>1.002206115577125</v>
+      </c>
+      <c r="M26">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="N26">
+        <v>0.9966269560558849</v>
+      </c>
+      <c r="O26">
+        <v>0.9961169665429356</v>
+      </c>
+      <c r="P26">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="Q26">
+        <v>0.9985164847522663</v>
+      </c>
+      <c r="R26">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="S26">
+        <v>0.9994612491004571</v>
+      </c>
+      <c r="T26">
+        <v>0.9997907608301252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9972140490422559</v>
+      </c>
+      <c r="D27">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="E27">
+        <v>1.006130613995557</v>
+      </c>
+      <c r="F27">
+        <v>0.9925539214800554</v>
+      </c>
+      <c r="G27">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="H27">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="I27">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="J27">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="K27">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="L27">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="M27">
+        <v>1.004174113463669</v>
+      </c>
+      <c r="N27">
+        <v>1.004174113463669</v>
+      </c>
+      <c r="O27">
+        <v>1.004826280307632</v>
+      </c>
+      <c r="P27">
+        <v>1.001858206511455</v>
+      </c>
+      <c r="Q27">
+        <v>1.001858206511455</v>
+      </c>
+      <c r="R27">
+        <v>1.000700253035348</v>
+      </c>
+      <c r="S27">
+        <v>1.000700253035348</v>
+      </c>
+      <c r="T27">
+        <v>1.000245534008706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.002307994367857</v>
+      </c>
+      <c r="D28">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="E28">
+        <v>0.9949150660089215</v>
+      </c>
+      <c r="F28">
+        <v>1.00623633870376</v>
+      </c>
+      <c r="G28">
+        <v>0.9907901800099577</v>
+      </c>
+      <c r="H28">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="I28">
+        <v>1.002332604100907</v>
+      </c>
+      <c r="J28">
+        <v>0.9907901800099577</v>
+      </c>
+      <c r="K28">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="L28">
+        <v>1.002332604100907</v>
+      </c>
+      <c r="M28">
+        <v>0.9965613920554321</v>
+      </c>
+      <c r="N28">
+        <v>0.9965613920554321</v>
+      </c>
+      <c r="O28">
+        <v>0.9960126167065954</v>
+      </c>
+      <c r="P28">
+        <v>0.9984569962706322</v>
+      </c>
+      <c r="Q28">
+        <v>0.9984569962706322</v>
+      </c>
+      <c r="R28">
+        <v>0.9994047983782324</v>
+      </c>
+      <c r="S28">
+        <v>0.9994047983782324</v>
+      </c>
+      <c r="T28">
+        <v>0.9998050646487392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.010786746453258</v>
+      </c>
+      <c r="D29">
+        <v>1.010689224442915</v>
+      </c>
+      <c r="E29">
+        <v>0.9762571581619818</v>
+      </c>
+      <c r="F29">
+        <v>1.028897930797502</v>
+      </c>
+      <c r="G29">
+        <v>0.9568891282835146</v>
+      </c>
+      <c r="H29">
+        <v>1.010689224442915</v>
+      </c>
+      <c r="I29">
+        <v>1.010826903717627</v>
+      </c>
+      <c r="J29">
+        <v>0.9568891282835146</v>
+      </c>
+      <c r="K29">
+        <v>1.010689224442915</v>
+      </c>
+      <c r="L29">
+        <v>1.010826903717627</v>
+      </c>
+      <c r="M29">
+        <v>0.9838580160005709</v>
+      </c>
+      <c r="N29">
+        <v>0.9838580160005709</v>
+      </c>
+      <c r="O29">
+        <v>0.9813243967210412</v>
+      </c>
+      <c r="P29">
+        <v>0.9928017521480189</v>
+      </c>
+      <c r="Q29">
+        <v>0.9928017521480189</v>
+      </c>
+      <c r="R29">
+        <v>0.9972736202217429</v>
+      </c>
+      <c r="S29">
+        <v>0.9972736202217429</v>
+      </c>
+      <c r="T29">
+        <v>0.9990578486427997</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001650212101951</v>
+        <v>0.993205508638923</v>
       </c>
       <c r="D4">
-        <v>1.00172008016558</v>
+        <v>0.9931484337060532</v>
       </c>
       <c r="E4">
-        <v>0.9963781240900266</v>
+        <v>1.014940865452414</v>
       </c>
       <c r="F4">
-        <v>1.004305116654108</v>
+        <v>0.9819593365843786</v>
       </c>
       <c r="G4">
-        <v>0.993373279051</v>
+        <v>1.02719910842806</v>
       </c>
       <c r="H4">
-        <v>1.00172008016558</v>
+        <v>0.9931484337060532</v>
       </c>
       <c r="I4">
-        <v>1.001621458878363</v>
+        <v>0.9932289944503082</v>
       </c>
       <c r="J4">
-        <v>0.993373279051</v>
+        <v>1.02719910842806</v>
       </c>
       <c r="K4">
-        <v>1.00172008016558</v>
+        <v>0.9931484337060532</v>
       </c>
       <c r="L4">
-        <v>1.001621458878363</v>
+        <v>0.9932289944503082</v>
       </c>
       <c r="M4">
-        <v>0.9974973689646818</v>
+        <v>1.010214051439184</v>
       </c>
       <c r="N4">
-        <v>0.9974973689646818</v>
+        <v>1.010214051439184</v>
       </c>
       <c r="O4">
-        <v>0.9971242873397967</v>
+        <v>1.011789656110261</v>
       </c>
       <c r="P4">
-        <v>0.9989049393649813</v>
+        <v>1.004525512194807</v>
       </c>
       <c r="Q4">
-        <v>0.9989049393649813</v>
+        <v>1.004525512194807</v>
       </c>
       <c r="R4">
-        <v>0.9996087245651309</v>
+        <v>1.001681242572619</v>
       </c>
       <c r="S4">
-        <v>0.9996087245651309</v>
+        <v>1.001681242572619</v>
       </c>
       <c r="T4">
-        <v>0.9998413784901716</v>
+        <v>1.000613707876689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9921987482925076</v>
+        <v>1.00700142983647</v>
       </c>
       <c r="D5">
-        <v>0.9921358440273788</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="E5">
-        <v>1.017155022564842</v>
+        <v>0.9845651671020453</v>
       </c>
       <c r="F5">
-        <v>0.9792826062247858</v>
+        <v>1.019022508434907</v>
       </c>
       <c r="G5">
-        <v>1.031228308976944</v>
+        <v>0.9720896908001571</v>
       </c>
       <c r="H5">
-        <v>0.9921358440273788</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="I5">
-        <v>0.9922246331484142</v>
+        <v>1.007107464427715</v>
       </c>
       <c r="J5">
-        <v>1.031228308976944</v>
+        <v>0.9720896908001571</v>
       </c>
       <c r="K5">
-        <v>0.9921358440273788</v>
+        <v>1.006743788724936</v>
       </c>
       <c r="L5">
-        <v>0.9922246331484142</v>
+        <v>1.007107464427715</v>
       </c>
       <c r="M5">
-        <v>1.011726471062679</v>
+        <v>0.989598577613936</v>
       </c>
       <c r="N5">
-        <v>1.011726471062679</v>
+        <v>0.989598577613936</v>
       </c>
       <c r="O5">
-        <v>1.013535988230067</v>
+        <v>0.9879207741099725</v>
       </c>
       <c r="P5">
-        <v>1.005196262050912</v>
+        <v>0.9953136479842692</v>
       </c>
       <c r="Q5">
-        <v>1.005196262050912</v>
+        <v>0.9953136479842692</v>
       </c>
       <c r="R5">
-        <v>1.001931157545029</v>
+        <v>0.9981711831694358</v>
       </c>
       <c r="S5">
-        <v>1.001931157545029</v>
+        <v>0.9981711831694358</v>
       </c>
       <c r="T5">
-        <v>1.000704193872479</v>
+        <v>0.9994216748877051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9733114996076271</v>
+        <v>1.001650212101951</v>
       </c>
       <c r="D6">
-        <v>0.9730141156265317</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="E6">
-        <v>1.058678152046628</v>
+        <v>0.9963781240900266</v>
       </c>
       <c r="F6">
-        <v>0.9292369660885342</v>
+        <v>1.004305116654108</v>
       </c>
       <c r="G6">
-        <v>1.106864135267555</v>
+        <v>0.993373279051</v>
       </c>
       <c r="H6">
-        <v>0.9730141156265317</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="I6">
-        <v>0.9734338791823877</v>
+        <v>1.001621458878363</v>
       </c>
       <c r="J6">
-        <v>1.106864135267555</v>
+        <v>0.993373279051</v>
       </c>
       <c r="K6">
-        <v>0.9730141156265317</v>
+        <v>1.00172008016558</v>
       </c>
       <c r="L6">
-        <v>0.9734338791823877</v>
+        <v>1.001621458878363</v>
       </c>
       <c r="M6">
-        <v>1.040149007224972</v>
+        <v>0.9974973689646818</v>
       </c>
       <c r="N6">
-        <v>1.040149007224972</v>
+        <v>0.9974973689646818</v>
       </c>
       <c r="O6">
-        <v>1.04632538883219</v>
+        <v>0.9971242873397967</v>
       </c>
       <c r="P6">
-        <v>1.017770710025492</v>
+        <v>0.9989049393649813</v>
       </c>
       <c r="Q6">
-        <v>1.017770710025492</v>
+        <v>0.9989049393649813</v>
       </c>
       <c r="R6">
-        <v>1.006581561425752</v>
+        <v>0.9996087245651309</v>
       </c>
       <c r="S6">
-        <v>1.006581561425752</v>
+        <v>0.9996087245651309</v>
       </c>
       <c r="T6">
-        <v>1.002423124636544</v>
+        <v>0.9998413784901716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9992156592969531</v>
+        <v>0.9921987482925076</v>
       </c>
       <c r="D7">
-        <v>0.9992224361485974</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="E7">
-        <v>1.0017263843225</v>
+        <v>1.017155022564842</v>
       </c>
       <c r="F7">
-        <v>0.9978991677150296</v>
+        <v>0.9792826062247858</v>
       </c>
       <c r="G7">
-        <v>1.003134858063855</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="H7">
-        <v>0.9992224361485974</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="I7">
-        <v>0.9992128683124234</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="J7">
-        <v>1.003134858063855</v>
+        <v>1.031228308976944</v>
       </c>
       <c r="K7">
-        <v>0.9992224361485974</v>
+        <v>0.9921358440273788</v>
       </c>
       <c r="L7">
-        <v>0.9992128683124234</v>
+        <v>0.9922246331484142</v>
       </c>
       <c r="M7">
-        <v>1.001173863188139</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="N7">
-        <v>1.001173863188139</v>
+        <v>1.011726471062679</v>
       </c>
       <c r="O7">
-        <v>1.001358036899593</v>
+        <v>1.013535988230067</v>
       </c>
       <c r="P7">
-        <v>1.000523387508292</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="Q7">
-        <v>1.000523387508292</v>
+        <v>1.005196262050912</v>
       </c>
       <c r="R7">
-        <v>1.000198149668368</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="S7">
-        <v>1.000198149668368</v>
+        <v>1.001931157545029</v>
       </c>
       <c r="T7">
-        <v>1.000068562309893</v>
+        <v>1.000704193872479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999335485630793</v>
+        <v>0.9733114996076271</v>
       </c>
       <c r="D8">
-        <v>0.9999334129682838</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="E8">
-        <v>1.000146175627824</v>
+        <v>1.058678152046628</v>
       </c>
       <c r="F8">
-        <v>0.9998229867668249</v>
+        <v>0.9292369660885342</v>
       </c>
       <c r="G8">
-        <v>1.000265857269597</v>
+        <v>1.106864135267555</v>
       </c>
       <c r="H8">
-        <v>0.9999334129682838</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="I8">
-        <v>0.9999336028302104</v>
+        <v>0.9734338791823877</v>
       </c>
       <c r="J8">
-        <v>1.000265857269597</v>
+        <v>1.106864135267555</v>
       </c>
       <c r="K8">
-        <v>0.9999334129682838</v>
+        <v>0.9730141156265317</v>
       </c>
       <c r="L8">
-        <v>0.9999336028302104</v>
+        <v>0.9734338791823877</v>
       </c>
       <c r="M8">
-        <v>1.000099730049904</v>
+        <v>1.040149007224972</v>
       </c>
       <c r="N8">
-        <v>1.000099730049904</v>
+        <v>1.040149007224972</v>
       </c>
       <c r="O8">
-        <v>1.000115211909211</v>
+        <v>1.04632538883219</v>
       </c>
       <c r="P8">
-        <v>1.000044291022697</v>
+        <v>1.017770710025492</v>
       </c>
       <c r="Q8">
-        <v>1.000044291022697</v>
+        <v>1.017770710025492</v>
       </c>
       <c r="R8">
-        <v>1.000016571509094</v>
+        <v>1.006581561425752</v>
       </c>
       <c r="S8">
-        <v>1.000016571509094</v>
+        <v>1.006581561425752</v>
       </c>
       <c r="T8">
-        <v>1.00000593067097</v>
+        <v>1.002423124636544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9985342458183785</v>
+        <v>0.9992156592969531</v>
       </c>
       <c r="D9">
-        <v>0.9985470252546133</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="E9">
-        <v>1.003226235618438</v>
+        <v>1.0017263843225</v>
       </c>
       <c r="F9">
-        <v>0.9960738577929245</v>
+        <v>0.9978991677150296</v>
       </c>
       <c r="G9">
-        <v>1.005858292635163</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="H9">
-        <v>0.9985470252546133</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="I9">
-        <v>0.9985289828231712</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="J9">
-        <v>1.005858292635163</v>
+        <v>1.003134858063855</v>
       </c>
       <c r="K9">
-        <v>0.9985470252546133</v>
+        <v>0.9992224361485974</v>
       </c>
       <c r="L9">
-        <v>0.9985289828231712</v>
+        <v>0.9992128683124234</v>
       </c>
       <c r="M9">
-        <v>1.002193637729167</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="N9">
-        <v>1.002193637729167</v>
+        <v>1.001173863188139</v>
       </c>
       <c r="O9">
-        <v>1.002537837025591</v>
+        <v>1.001358036899593</v>
       </c>
       <c r="P9">
-        <v>1.000978100237649</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="Q9">
-        <v>1.000978100237649</v>
+        <v>1.000523387508292</v>
       </c>
       <c r="R9">
-        <v>1.00037033149189</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="S9">
-        <v>1.00037033149189</v>
+        <v>1.000198149668368</v>
       </c>
       <c r="T9">
-        <v>1.000128106657115</v>
+        <v>1.000068562309893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9729135469831452</v>
+        <v>0.9999335485630793</v>
       </c>
       <c r="D10">
-        <v>0.9726068764218702</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="E10">
-        <v>1.059552507086018</v>
+        <v>1.000146175627824</v>
       </c>
       <c r="F10">
-        <v>0.9281884453106968</v>
+        <v>0.9998229867668249</v>
       </c>
       <c r="G10">
-        <v>1.108459386259748</v>
+        <v>1.000265857269597</v>
       </c>
       <c r="H10">
-        <v>0.9726068764218702</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="I10">
-        <v>0.9730397482906125</v>
+        <v>0.9999336028302104</v>
       </c>
       <c r="J10">
-        <v>1.108459386259748</v>
+        <v>1.000265857269597</v>
       </c>
       <c r="K10">
-        <v>0.9726068764218702</v>
+        <v>0.9999334129682838</v>
       </c>
       <c r="L10">
-        <v>0.9730397482906125</v>
+        <v>0.9999336028302104</v>
       </c>
       <c r="M10">
-        <v>1.04074956727518</v>
+        <v>1.000099730049904</v>
       </c>
       <c r="N10">
-        <v>1.04074956727518</v>
+        <v>1.000099730049904</v>
       </c>
       <c r="O10">
-        <v>1.047017213878793</v>
+        <v>1.000115211909211</v>
       </c>
       <c r="P10">
-        <v>1.018035336990744</v>
+        <v>1.000044291022697</v>
       </c>
       <c r="Q10">
-        <v>1.018035336990744</v>
+        <v>1.000044291022697</v>
       </c>
       <c r="R10">
-        <v>1.006678221848525</v>
+        <v>1.000016571509094</v>
       </c>
       <c r="S10">
-        <v>1.006678221848525</v>
+        <v>1.000016571509094</v>
       </c>
       <c r="T10">
-        <v>1.002460085058682</v>
+        <v>1.00000593067097</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9993501103776781</v>
+        <v>0.9985342458183785</v>
       </c>
       <c r="D11">
-        <v>0.9994872030233061</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="E11">
-        <v>1.001446610323213</v>
+        <v>1.003226235618438</v>
       </c>
       <c r="F11">
-        <v>0.9980796734242212</v>
+        <v>0.9960738577929245</v>
       </c>
       <c r="G11">
-        <v>1.002548782921856</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="H11">
-        <v>0.9994872030233061</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="I11">
-        <v>0.9992936962696783</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="J11">
-        <v>1.002548782921856</v>
+        <v>1.005858292635163</v>
       </c>
       <c r="K11">
-        <v>0.9994872030233061</v>
+        <v>0.9985470252546133</v>
       </c>
       <c r="L11">
-        <v>0.9992936962696783</v>
+        <v>0.9985289828231712</v>
       </c>
       <c r="M11">
-        <v>1.000921239595767</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="N11">
-        <v>1.000921239595767</v>
+        <v>1.002193637729167</v>
       </c>
       <c r="O11">
-        <v>1.001096363171582</v>
+        <v>1.002537837025591</v>
       </c>
       <c r="P11">
-        <v>1.000443227404947</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="Q11">
-        <v>1.000443227404947</v>
+        <v>1.000978100237649</v>
       </c>
       <c r="R11">
-        <v>1.000204221309537</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="S11">
-        <v>1.000204221309537</v>
+        <v>1.00037033149189</v>
       </c>
       <c r="T11">
-        <v>1.000034346056659</v>
+        <v>1.000128106657115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9919326941368455</v>
+        <v>0.9729135469831452</v>
       </c>
       <c r="D12">
-        <v>0.9918334383052608</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="E12">
-        <v>1.017735873694738</v>
+        <v>1.059552507086018</v>
       </c>
       <c r="F12">
-        <v>0.9786227919789491</v>
+        <v>0.9281884453106968</v>
       </c>
       <c r="G12">
-        <v>1.032305989905268</v>
+        <v>1.108459386259748</v>
       </c>
       <c r="H12">
-        <v>0.9918334383052608</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="I12">
-        <v>0.9919735386631581</v>
+        <v>0.9730397482906125</v>
       </c>
       <c r="J12">
-        <v>1.032305989905268</v>
+        <v>1.108459386259748</v>
       </c>
       <c r="K12">
-        <v>0.9918334383052608</v>
+        <v>0.9726068764218702</v>
       </c>
       <c r="L12">
-        <v>0.9919735386631581</v>
+        <v>0.9730397482906125</v>
       </c>
       <c r="M12">
-        <v>1.012139764284213</v>
+        <v>1.04074956727518</v>
       </c>
       <c r="N12">
-        <v>1.012139764284213</v>
+        <v>1.04074956727518</v>
       </c>
       <c r="O12">
-        <v>1.014005134087721</v>
+        <v>1.047017213878793</v>
       </c>
       <c r="P12">
-        <v>1.005370988957895</v>
+        <v>1.018035336990744</v>
       </c>
       <c r="Q12">
-        <v>1.005370988957895</v>
+        <v>1.018035336990744</v>
       </c>
       <c r="R12">
-        <v>1.001986601294737</v>
+        <v>1.006678221848525</v>
       </c>
       <c r="S12">
-        <v>1.001986601294737</v>
+        <v>1.006678221848525</v>
       </c>
       <c r="T12">
-        <v>1.00073405444737</v>
+        <v>1.002460085058682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.005323588683976</v>
+        <v>0.9993501103776781</v>
       </c>
       <c r="D13">
-        <v>1.005334093279796</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="E13">
-        <v>0.9882893968771214</v>
+        <v>1.001446610323213</v>
       </c>
       <c r="F13">
-        <v>1.014181886422924</v>
+        <v>0.9980796734242212</v>
       </c>
       <c r="G13">
-        <v>0.9787017569742833</v>
+        <v>1.002548782921856</v>
       </c>
       <c r="H13">
-        <v>1.005334093279796</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="I13">
-        <v>1.005319264359897</v>
+        <v>0.9992936962696783</v>
       </c>
       <c r="J13">
-        <v>0.9787017569742833</v>
+        <v>1.002548782921856</v>
       </c>
       <c r="K13">
-        <v>1.005334093279796</v>
+        <v>0.9994872030233061</v>
       </c>
       <c r="L13">
-        <v>1.005319264359897</v>
+        <v>0.9992936962696783</v>
       </c>
       <c r="M13">
-        <v>0.9920105106670902</v>
+        <v>1.000921239595767</v>
       </c>
       <c r="N13">
-        <v>0.9920105106670902</v>
+        <v>1.000921239595767</v>
       </c>
       <c r="O13">
-        <v>0.9907701394037672</v>
+        <v>1.001096363171582</v>
       </c>
       <c r="P13">
-        <v>0.9964517048713256</v>
+        <v>1.000443227404947</v>
       </c>
       <c r="Q13">
-        <v>0.9964517048713256</v>
+        <v>1.000443227404947</v>
       </c>
       <c r="R13">
-        <v>0.9986723019734433</v>
+        <v>1.000204221309537</v>
       </c>
       <c r="S13">
-        <v>0.9986723019734433</v>
+        <v>1.000204221309537</v>
       </c>
       <c r="T13">
-        <v>0.9995249977663329</v>
+        <v>1.000034346056659</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9532016400000016</v>
+        <v>0.9919326941368455</v>
       </c>
       <c r="D14">
-        <v>0.9526597999999998</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="E14">
-        <v>1.1028898</v>
+        <v>1.017735873694738</v>
       </c>
       <c r="F14">
-        <v>0.8759446600000014</v>
+        <v>0.9786227919789491</v>
       </c>
       <c r="G14">
-        <v>1.187394100000001</v>
+        <v>1.032305989905268</v>
       </c>
       <c r="H14">
-        <v>0.9526597999999998</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="I14">
-        <v>0.9534246200000004</v>
+        <v>0.9919735386631581</v>
       </c>
       <c r="J14">
-        <v>1.187394100000001</v>
+        <v>1.032305989905268</v>
       </c>
       <c r="K14">
-        <v>0.9526597999999998</v>
+        <v>0.9918334383052608</v>
       </c>
       <c r="L14">
-        <v>0.9534246200000004</v>
+        <v>0.9919735386631581</v>
       </c>
       <c r="M14">
-        <v>1.070409360000001</v>
+        <v>1.012139764284213</v>
       </c>
       <c r="N14">
-        <v>1.070409360000001</v>
+        <v>1.012139764284213</v>
       </c>
       <c r="O14">
-        <v>1.081236173333334</v>
+        <v>1.014005134087721</v>
       </c>
       <c r="P14">
-        <v>1.031159506666667</v>
+        <v>1.005370988957895</v>
       </c>
       <c r="Q14">
-        <v>1.031159506666667</v>
+        <v>1.005370988957895</v>
       </c>
       <c r="R14">
-        <v>1.01153458</v>
+        <v>1.001986601294737</v>
       </c>
       <c r="S14">
-        <v>1.01153458</v>
+        <v>1.001986601294737</v>
       </c>
       <c r="T14">
-        <v>1.004252436666667</v>
+        <v>1.00073405444737</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0117535</v>
+        <v>1.005323588683976</v>
       </c>
       <c r="D15">
-        <v>1.012634</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="E15">
-        <v>0.9742505199999999</v>
+        <v>0.9882893968771214</v>
       </c>
       <c r="F15">
-        <v>1.0301398</v>
+        <v>1.014181886422924</v>
       </c>
       <c r="G15">
-        <v>0.9526597999999999</v>
+        <v>0.9787017569742833</v>
       </c>
       <c r="H15">
-        <v>1.012634</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="I15">
-        <v>1.0113912</v>
+        <v>1.005319264359897</v>
       </c>
       <c r="J15">
-        <v>0.9526597999999999</v>
+        <v>0.9787017569742833</v>
       </c>
       <c r="K15">
-        <v>1.012634</v>
+        <v>1.005334093279796</v>
       </c>
       <c r="L15">
-        <v>1.0113912</v>
+        <v>1.005319264359897</v>
       </c>
       <c r="M15">
-        <v>0.9820255</v>
+        <v>0.9920105106670902</v>
       </c>
       <c r="N15">
-        <v>0.9820255</v>
+        <v>0.9920105106670902</v>
       </c>
       <c r="O15">
-        <v>0.97943384</v>
+        <v>0.9907701394037672</v>
       </c>
       <c r="P15">
-        <v>0.9922283333333333</v>
+        <v>0.9964517048713256</v>
       </c>
       <c r="Q15">
-        <v>0.9922283333333333</v>
+        <v>0.9964517048713256</v>
       </c>
       <c r="R15">
-        <v>0.99732975</v>
+        <v>0.9986723019734433</v>
       </c>
       <c r="S15">
-        <v>0.99732975</v>
+        <v>0.9986723019734433</v>
       </c>
       <c r="T15">
-        <v>0.9988048033333333</v>
+        <v>0.9995249977663329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0117535</v>
+        <v>0.9532016400000016</v>
       </c>
       <c r="D16">
-        <v>1.012634</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="E16">
-        <v>0.9742505199999999</v>
+        <v>1.1028898</v>
       </c>
       <c r="F16">
-        <v>1.0301398</v>
+        <v>0.8759446600000014</v>
       </c>
       <c r="G16">
-        <v>0.9526597999999999</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="H16">
-        <v>1.012634</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="I16">
-        <v>1.0113912</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="J16">
-        <v>0.9526597999999999</v>
+        <v>1.187394100000001</v>
       </c>
       <c r="K16">
-        <v>1.012634</v>
+        <v>0.9526597999999998</v>
       </c>
       <c r="L16">
-        <v>1.0113912</v>
+        <v>0.9534246200000004</v>
       </c>
       <c r="M16">
-        <v>0.9820255</v>
+        <v>1.070409360000001</v>
       </c>
       <c r="N16">
-        <v>0.9820255</v>
+        <v>1.070409360000001</v>
       </c>
       <c r="O16">
-        <v>0.97943384</v>
+        <v>1.081236173333334</v>
       </c>
       <c r="P16">
-        <v>0.9922283333333333</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="Q16">
-        <v>0.9922283333333333</v>
+        <v>1.031159506666667</v>
       </c>
       <c r="R16">
-        <v>0.99732975</v>
+        <v>1.01153458</v>
       </c>
       <c r="S16">
-        <v>0.99732975</v>
+        <v>1.01153458</v>
       </c>
       <c r="T16">
-        <v>0.9988048033333333</v>
+        <v>1.004252436666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0298917</v>
+        <v>1.0117535</v>
       </c>
       <c r="D17">
-        <v>1.0290165</v>
+        <v>1.012634</v>
       </c>
       <c r="E17">
-        <v>0.93413061</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F17">
-        <v>1.080907</v>
+        <v>1.0301398</v>
       </c>
       <c r="G17">
-        <v>0.88075728</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H17">
-        <v>1.0290165</v>
+        <v>1.012634</v>
       </c>
       <c r="I17">
-        <v>1.0302519</v>
+        <v>1.0113912</v>
       </c>
       <c r="J17">
-        <v>0.88075728</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K17">
-        <v>1.0290165</v>
+        <v>1.012634</v>
       </c>
       <c r="L17">
-        <v>1.0302519</v>
+        <v>1.0113912</v>
       </c>
       <c r="M17">
-        <v>0.9555045900000001</v>
+        <v>0.9820255</v>
       </c>
       <c r="N17">
-        <v>0.9555045900000001</v>
+        <v>0.9820255</v>
       </c>
       <c r="O17">
-        <v>0.9483799300000001</v>
+        <v>0.97943384</v>
       </c>
       <c r="P17">
-        <v>0.98000856</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q17">
-        <v>0.98000856</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R17">
-        <v>0.992260545</v>
+        <v>0.99732975</v>
       </c>
       <c r="S17">
-        <v>0.992260545</v>
+        <v>0.99732975</v>
       </c>
       <c r="T17">
-        <v>0.9974924983333334</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9828786298630137</v>
+        <v>1.0117535</v>
       </c>
       <c r="D18">
-        <v>0.9830576942465755</v>
+        <v>1.012634</v>
       </c>
       <c r="E18">
-        <v>1.037689050410959</v>
+        <v>0.9742505199999999</v>
       </c>
       <c r="F18">
-        <v>0.9540983468493153</v>
+        <v>1.0301398</v>
       </c>
       <c r="G18">
-        <v>1.068419192876712</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="H18">
-        <v>0.9830576942465755</v>
+        <v>1.012634</v>
       </c>
       <c r="I18">
-        <v>0.9828049369863013</v>
+        <v>1.0113912</v>
       </c>
       <c r="J18">
-        <v>1.068419192876712</v>
+        <v>0.9526597999999999</v>
       </c>
       <c r="K18">
-        <v>0.9830576942465755</v>
+        <v>1.012634</v>
       </c>
       <c r="L18">
-        <v>0.9828049369863013</v>
+        <v>1.0113912</v>
       </c>
       <c r="M18">
-        <v>1.025612064931507</v>
+        <v>0.9820255</v>
       </c>
       <c r="N18">
-        <v>1.025612064931507</v>
+        <v>0.9820255</v>
       </c>
       <c r="O18">
-        <v>1.029637726757991</v>
+        <v>0.97943384</v>
       </c>
       <c r="P18">
-        <v>1.011427274703196</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="Q18">
-        <v>1.011427274703196</v>
+        <v>0.9922283333333333</v>
       </c>
       <c r="R18">
-        <v>1.004334879589041</v>
+        <v>0.99732975</v>
       </c>
       <c r="S18">
-        <v>1.004334879589041</v>
+        <v>0.99732975</v>
       </c>
       <c r="T18">
-        <v>1.001491308538813</v>
+        <v>0.9988048033333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.003211843684211</v>
+        <v>1.0298917</v>
       </c>
       <c r="D19">
-        <v>1.002960087894737</v>
+        <v>1.0290165</v>
       </c>
       <c r="E19">
-        <v>0.9929029810526316</v>
+        <v>0.93413061</v>
       </c>
       <c r="F19">
-        <v>1.008908904210526</v>
+        <v>1.080907</v>
       </c>
       <c r="G19">
-        <v>0.987245854736842</v>
+        <v>0.88075728</v>
       </c>
       <c r="H19">
-        <v>1.002960087894737</v>
+        <v>1.0290165</v>
       </c>
       <c r="I19">
-        <v>1.00331545631579</v>
+        <v>1.0302519</v>
       </c>
       <c r="J19">
-        <v>0.987245854736842</v>
+        <v>0.88075728</v>
       </c>
       <c r="K19">
-        <v>1.002960087894737</v>
+        <v>1.0290165</v>
       </c>
       <c r="L19">
-        <v>1.00331545631579</v>
+        <v>1.0302519</v>
       </c>
       <c r="M19">
-        <v>0.9952806555263158</v>
+        <v>0.9555045900000001</v>
       </c>
       <c r="N19">
-        <v>0.9952806555263158</v>
+        <v>0.9555045900000001</v>
       </c>
       <c r="O19">
-        <v>0.994488097368421</v>
+        <v>0.9483799300000001</v>
       </c>
       <c r="P19">
-        <v>0.9978404663157896</v>
+        <v>0.98000856</v>
       </c>
       <c r="Q19">
-        <v>0.9978404663157896</v>
+        <v>0.98000856</v>
       </c>
       <c r="R19">
-        <v>0.9991203717105264</v>
+        <v>0.992260545</v>
       </c>
       <c r="S19">
-        <v>0.9991203717105264</v>
+        <v>0.992260545</v>
       </c>
       <c r="T19">
-        <v>0.9997575213157895</v>
+        <v>0.9974924983333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.003211843684211</v>
+        <v>0.9828786298630137</v>
       </c>
       <c r="D20">
-        <v>1.002960087894737</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="E20">
-        <v>0.9929029810526316</v>
+        <v>1.037689050410959</v>
       </c>
       <c r="F20">
-        <v>1.008908904210526</v>
+        <v>0.9540983468493153</v>
       </c>
       <c r="G20">
-        <v>0.987245854736842</v>
+        <v>1.068419192876712</v>
       </c>
       <c r="H20">
-        <v>1.002960087894737</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="I20">
-        <v>1.00331545631579</v>
+        <v>0.9828049369863013</v>
       </c>
       <c r="J20">
-        <v>0.987245854736842</v>
+        <v>1.068419192876712</v>
       </c>
       <c r="K20">
-        <v>1.002960087894737</v>
+        <v>0.9830576942465755</v>
       </c>
       <c r="L20">
-        <v>1.00331545631579</v>
+        <v>0.9828049369863013</v>
       </c>
       <c r="M20">
-        <v>0.9952806555263158</v>
+        <v>1.025612064931507</v>
       </c>
       <c r="N20">
-        <v>0.9952806555263158</v>
+        <v>1.025612064931507</v>
       </c>
       <c r="O20">
-        <v>0.994488097368421</v>
+        <v>1.029637726757991</v>
       </c>
       <c r="P20">
-        <v>0.9978404663157896</v>
+        <v>1.011427274703196</v>
       </c>
       <c r="Q20">
-        <v>0.9978404663157896</v>
+        <v>1.011427274703196</v>
       </c>
       <c r="R20">
-        <v>0.9991203717105264</v>
+        <v>1.004334879589041</v>
       </c>
       <c r="S20">
-        <v>0.9991203717105264</v>
+        <v>1.004334879589041</v>
       </c>
       <c r="T20">
-        <v>0.9997575213157895</v>
+        <v>1.001491308538813</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.008594582493255</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="D21">
-        <v>1.008440267632869</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="E21">
-        <v>0.9810729601344501</v>
+        <v>0.9929029810526316</v>
       </c>
       <c r="F21">
-        <v>1.023129671862989</v>
+        <v>1.008908904210526</v>
       </c>
       <c r="G21">
-        <v>0.9656788526781157</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="H21">
-        <v>1.008440267632869</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="I21">
-        <v>1.008658063000247</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="J21">
-        <v>0.9656788526781157</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="K21">
-        <v>1.008440267632869</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L21">
-        <v>1.008658063000247</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="M21">
-        <v>0.9871684578391815</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="N21">
-        <v>0.9871684578391815</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="O21">
-        <v>0.9851366252709376</v>
+        <v>0.994488097368421</v>
       </c>
       <c r="P21">
-        <v>0.994259061103744</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="Q21">
-        <v>0.994259061103744</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="R21">
-        <v>0.9978043627360252</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="S21">
-        <v>0.9978043627360252</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="T21">
-        <v>0.9992623996336542</v>
+        <v>0.9997575213157895</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002232186217677</v>
+        <v>1.003211843684211</v>
       </c>
       <c r="D22">
-        <v>1.002295542145029</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="E22">
-        <v>0.9950969875170368</v>
+        <v>0.9929029810526316</v>
       </c>
       <c r="F22">
-        <v>1.005865936989239</v>
+        <v>1.008908904210526</v>
       </c>
       <c r="G22">
-        <v>0.991047796534645</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="H22">
-        <v>1.002295542145029</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="I22">
-        <v>1.002206115577125</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="J22">
-        <v>0.991047796534645</v>
+        <v>0.987245854736842</v>
       </c>
       <c r="K22">
-        <v>1.002295542145029</v>
+        <v>1.002960087894737</v>
       </c>
       <c r="L22">
-        <v>1.002206115577125</v>
+        <v>1.00331545631579</v>
       </c>
       <c r="M22">
-        <v>0.9966269560558849</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="N22">
-        <v>0.9966269560558849</v>
+        <v>0.9952806555263158</v>
       </c>
       <c r="O22">
-        <v>0.9961169665429356</v>
+        <v>0.994488097368421</v>
       </c>
       <c r="P22">
-        <v>0.9985164847522663</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="Q22">
-        <v>0.9985164847522663</v>
+        <v>0.9978404663157896</v>
       </c>
       <c r="R22">
-        <v>0.9994612491004571</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="S22">
-        <v>0.9994612491004571</v>
+        <v>0.9991203717105264</v>
       </c>
       <c r="T22">
-        <v>0.9997907608301252</v>
+        <v>0.9997575213157895</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.003678859927265</v>
+        <v>1.008594582493255</v>
       </c>
       <c r="D23">
-        <v>1.004083142202896</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="E23">
-        <v>0.9919562085308015</v>
+        <v>0.9810729601344501</v>
       </c>
       <c r="F23">
-        <v>1.009257961053271</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="G23">
-        <v>0.9851348086546712</v>
+        <v>0.9656788526781157</v>
       </c>
       <c r="H23">
-        <v>1.004083142202896</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="I23">
-        <v>1.003512512846241</v>
+        <v>1.008658063000247</v>
       </c>
       <c r="J23">
-        <v>0.9851348086546712</v>
+        <v>0.9656788526781157</v>
       </c>
       <c r="K23">
-        <v>1.004083142202896</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="L23">
-        <v>1.003512512846241</v>
+        <v>1.008658063000247</v>
       </c>
       <c r="M23">
-        <v>0.9943236607504563</v>
+        <v>0.9871684578391815</v>
       </c>
       <c r="N23">
-        <v>0.9943236607504563</v>
+        <v>0.9871684578391815</v>
       </c>
       <c r="O23">
-        <v>0.9935345100105714</v>
+        <v>0.9851366252709376</v>
       </c>
       <c r="P23">
-        <v>0.9975768212346029</v>
+        <v>0.994259061103744</v>
       </c>
       <c r="Q23">
-        <v>0.9975768212346029</v>
+        <v>0.994259061103744</v>
       </c>
       <c r="R23">
-        <v>0.9992034014766762</v>
+        <v>0.9978043627360252</v>
       </c>
       <c r="S23">
-        <v>0.9992034014766762</v>
+        <v>0.9978043627360252</v>
       </c>
       <c r="T23">
-        <v>0.9996039155358577</v>
+        <v>0.9992623996336542</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000924269029135</v>
+        <v>1.002232186217677</v>
       </c>
       <c r="D24">
-        <v>1.000754173015497</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="E24">
-        <v>0.9979456943120095</v>
+        <v>0.9950969875170368</v>
       </c>
       <c r="F24">
-        <v>1.002697115514953</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="G24">
-        <v>0.9963659284845212</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="H24">
-        <v>1.000754173015497</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="I24">
-        <v>1.0009942597083</v>
+        <v>1.002206115577125</v>
       </c>
       <c r="J24">
-        <v>0.9963659284845212</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="K24">
-        <v>1.000754173015497</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="L24">
-        <v>1.0009942597083</v>
+        <v>1.002206115577125</v>
       </c>
       <c r="M24">
-        <v>0.9986800940964107</v>
+        <v>0.9966269560558849</v>
       </c>
       <c r="N24">
-        <v>0.9986800940964107</v>
+        <v>0.9966269560558849</v>
       </c>
       <c r="O24">
-        <v>0.998435294168277</v>
+        <v>0.9961169665429356</v>
       </c>
       <c r="P24">
-        <v>0.9993714537361061</v>
+        <v>0.9985164847522663</v>
       </c>
       <c r="Q24">
-        <v>0.9993714537361061</v>
+        <v>0.9985164847522663</v>
       </c>
       <c r="R24">
-        <v>0.9997171335559538</v>
+        <v>0.9994612491004571</v>
       </c>
       <c r="S24">
-        <v>0.9997171335559538</v>
+        <v>0.9994612491004571</v>
       </c>
       <c r="T24">
-        <v>0.9999469066774026</v>
+        <v>0.9997907608301252</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.008594582493255</v>
+        <v>1.003678859927265</v>
       </c>
       <c r="D25">
-        <v>1.008440267632869</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="E25">
-        <v>0.98107296013445</v>
+        <v>0.9919562085308015</v>
       </c>
       <c r="F25">
-        <v>1.023129671862989</v>
+        <v>1.009257961053271</v>
       </c>
       <c r="G25">
-        <v>0.965678852678116</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="H25">
-        <v>1.008440267632869</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="I25">
-        <v>1.008658063000247</v>
+        <v>1.003512512846241</v>
       </c>
       <c r="J25">
-        <v>0.965678852678116</v>
+        <v>0.9851348086546712</v>
       </c>
       <c r="K25">
-        <v>1.008440267632869</v>
+        <v>1.004083142202896</v>
       </c>
       <c r="L25">
-        <v>1.008658063000247</v>
+        <v>1.003512512846241</v>
       </c>
       <c r="M25">
-        <v>0.9871684578391817</v>
+        <v>0.9943236607504563</v>
       </c>
       <c r="N25">
-        <v>0.9871684578391817</v>
+        <v>0.9943236607504563</v>
       </c>
       <c r="O25">
-        <v>0.9851366252709378</v>
+        <v>0.9935345100105714</v>
       </c>
       <c r="P25">
-        <v>0.9942590611037442</v>
+        <v>0.9975768212346029</v>
       </c>
       <c r="Q25">
-        <v>0.9942590611037442</v>
+        <v>0.9975768212346029</v>
       </c>
       <c r="R25">
-        <v>0.9978043627360254</v>
+        <v>0.9992034014766762</v>
       </c>
       <c r="S25">
-        <v>0.9978043627360254</v>
+        <v>0.9992034014766762</v>
       </c>
       <c r="T25">
-        <v>0.9992623996336544</v>
+        <v>0.9996039155358577</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.002232186217677</v>
+        <v>1.000924269029135</v>
       </c>
       <c r="D26">
-        <v>1.002295542145029</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="E26">
-        <v>0.9950969875170368</v>
+        <v>0.9979456943120095</v>
       </c>
       <c r="F26">
-        <v>1.005865936989239</v>
+        <v>1.002697115514953</v>
       </c>
       <c r="G26">
-        <v>0.991047796534645</v>
+        <v>0.9963659284845212</v>
       </c>
       <c r="H26">
-        <v>1.002295542145029</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="I26">
-        <v>1.002206115577125</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="J26">
-        <v>0.991047796534645</v>
+        <v>0.9963659284845212</v>
       </c>
       <c r="K26">
-        <v>1.002295542145029</v>
+        <v>1.000754173015497</v>
       </c>
       <c r="L26">
-        <v>1.002206115577125</v>
+        <v>1.0009942597083</v>
       </c>
       <c r="M26">
-        <v>0.9966269560558849</v>
+        <v>0.9986800940964107</v>
       </c>
       <c r="N26">
-        <v>0.9966269560558849</v>
+        <v>0.9986800940964107</v>
       </c>
       <c r="O26">
-        <v>0.9961169665429356</v>
+        <v>0.998435294168277</v>
       </c>
       <c r="P26">
-        <v>0.9985164847522663</v>
+        <v>0.9993714537361061</v>
       </c>
       <c r="Q26">
-        <v>0.9985164847522663</v>
+        <v>0.9993714537361061</v>
       </c>
       <c r="R26">
-        <v>0.9994612491004571</v>
+        <v>0.9997171335559538</v>
       </c>
       <c r="S26">
-        <v>0.9994612491004571</v>
+        <v>0.9997171335559538</v>
       </c>
       <c r="T26">
-        <v>0.9997907608301252</v>
+        <v>0.9999469066774026</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9972140490422559</v>
+        <v>1.008594582493255</v>
       </c>
       <c r="D27">
-        <v>0.9972263926070266</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="E27">
-        <v>1.006130613995557</v>
+        <v>0.98107296013445</v>
       </c>
       <c r="F27">
-        <v>0.9925539214800554</v>
+        <v>1.023129671862989</v>
       </c>
       <c r="G27">
-        <v>1.011139264332678</v>
+        <v>0.965678852678116</v>
       </c>
       <c r="H27">
-        <v>0.9972263926070266</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="I27">
-        <v>0.9972089625946605</v>
+        <v>1.008658063000247</v>
       </c>
       <c r="J27">
-        <v>1.011139264332678</v>
+        <v>0.965678852678116</v>
       </c>
       <c r="K27">
-        <v>0.9972263926070266</v>
+        <v>1.008440267632869</v>
       </c>
       <c r="L27">
-        <v>0.9972089625946605</v>
+        <v>1.008658063000247</v>
       </c>
       <c r="M27">
-        <v>1.004174113463669</v>
+        <v>0.9871684578391817</v>
       </c>
       <c r="N27">
-        <v>1.004174113463669</v>
+        <v>0.9871684578391817</v>
       </c>
       <c r="O27">
-        <v>1.004826280307632</v>
+        <v>0.9851366252709378</v>
       </c>
       <c r="P27">
-        <v>1.001858206511455</v>
+        <v>0.9942590611037442</v>
       </c>
       <c r="Q27">
-        <v>1.001858206511455</v>
+        <v>0.9942590611037442</v>
       </c>
       <c r="R27">
-        <v>1.000700253035348</v>
+        <v>0.9978043627360254</v>
       </c>
       <c r="S27">
-        <v>1.000700253035348</v>
+        <v>0.9978043627360254</v>
       </c>
       <c r="T27">
-        <v>1.000245534008706</v>
+        <v>0.9992623996336544</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.002307994367857</v>
+        <v>1.002232186217677</v>
       </c>
       <c r="D28">
-        <v>1.002248204701033</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="E28">
-        <v>0.9949150660089215</v>
+        <v>0.9950969875170368</v>
       </c>
       <c r="F28">
-        <v>1.00623633870376</v>
+        <v>1.005865936989239</v>
       </c>
       <c r="G28">
-        <v>0.9907901800099577</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="H28">
-        <v>1.002248204701033</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="I28">
-        <v>1.002332604100907</v>
+        <v>1.002206115577125</v>
       </c>
       <c r="J28">
-        <v>0.9907901800099577</v>
+        <v>0.991047796534645</v>
       </c>
       <c r="K28">
-        <v>1.002248204701033</v>
+        <v>1.002295542145029</v>
       </c>
       <c r="L28">
-        <v>1.002332604100907</v>
+        <v>1.002206115577125</v>
       </c>
       <c r="M28">
-        <v>0.9965613920554321</v>
+        <v>0.9966269560558849</v>
       </c>
       <c r="N28">
-        <v>0.9965613920554321</v>
+        <v>0.9966269560558849</v>
       </c>
       <c r="O28">
-        <v>0.9960126167065954</v>
+        <v>0.9961169665429356</v>
       </c>
       <c r="P28">
-        <v>0.9984569962706322</v>
+        <v>0.9985164847522663</v>
       </c>
       <c r="Q28">
-        <v>0.9984569962706322</v>
+        <v>0.9985164847522663</v>
       </c>
       <c r="R28">
-        <v>0.9994047983782324</v>
+        <v>0.9994612491004571</v>
       </c>
       <c r="S28">
-        <v>0.9994047983782324</v>
+        <v>0.9994612491004571</v>
       </c>
       <c r="T28">
-        <v>0.9998050646487392</v>
+        <v>0.9997907608301252</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9972140490422559</v>
+      </c>
+      <c r="D29">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="E29">
+        <v>1.006130613995557</v>
+      </c>
+      <c r="F29">
+        <v>0.9925539214800554</v>
+      </c>
+      <c r="G29">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="H29">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="I29">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="J29">
+        <v>1.011139264332678</v>
+      </c>
+      <c r="K29">
+        <v>0.9972263926070266</v>
+      </c>
+      <c r="L29">
+        <v>0.9972089625946605</v>
+      </c>
+      <c r="M29">
+        <v>1.004174113463669</v>
+      </c>
+      <c r="N29">
+        <v>1.004174113463669</v>
+      </c>
+      <c r="O29">
+        <v>1.004826280307632</v>
+      </c>
+      <c r="P29">
+        <v>1.001858206511455</v>
+      </c>
+      <c r="Q29">
+        <v>1.001858206511455</v>
+      </c>
+      <c r="R29">
+        <v>1.000700253035348</v>
+      </c>
+      <c r="S29">
+        <v>1.000700253035348</v>
+      </c>
+      <c r="T29">
+        <v>1.000245534008706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.002307994367857</v>
+      </c>
+      <c r="D30">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="E30">
+        <v>0.9949150660089215</v>
+      </c>
+      <c r="F30">
+        <v>1.00623633870376</v>
+      </c>
+      <c r="G30">
+        <v>0.9907901800099577</v>
+      </c>
+      <c r="H30">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="I30">
+        <v>1.002332604100907</v>
+      </c>
+      <c r="J30">
+        <v>0.9907901800099577</v>
+      </c>
+      <c r="K30">
+        <v>1.002248204701033</v>
+      </c>
+      <c r="L30">
+        <v>1.002332604100907</v>
+      </c>
+      <c r="M30">
+        <v>0.9965613920554321</v>
+      </c>
+      <c r="N30">
+        <v>0.9965613920554321</v>
+      </c>
+      <c r="O30">
+        <v>0.9960126167065954</v>
+      </c>
+      <c r="P30">
+        <v>0.9984569962706322</v>
+      </c>
+      <c r="Q30">
+        <v>0.9984569962706322</v>
+      </c>
+      <c r="R30">
+        <v>0.9994047983782324</v>
+      </c>
+      <c r="S30">
+        <v>0.9994047983782324</v>
+      </c>
+      <c r="T30">
+        <v>0.9998050646487392</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.010786746453258</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.010689224442915</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9762571581619818</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.028897930797502</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9568891282835146</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.010689224442915</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.010826903717627</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9568891282835146</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.010689224442915</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.010826903717627</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9838580160005709</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9838580160005709</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9813243967210412</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9928017521480189</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9928017521480189</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9972736202217429</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9972736202217429</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9990578486427997</v>
       </c>
     </row>
